--- a/Organisation+Recensement.xlsx
+++ b/Organisation+Recensement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Resume" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="Abst ATS" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Décompte" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Répartition" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Répartition_2" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">ATS!$A$1:$I$41</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="273">
   <si>
     <t xml:space="preserve">ATS</t>
   </si>
@@ -825,7 +826,31 @@
     <t xml:space="preserve">salle</t>
   </si>
   <si>
-    <t xml:space="preserve">1A du cycle Ingénieur</t>
+    <t xml:space="preserve">Giroud Alexis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vandycke Corentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHILIS Lucas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serretta Enzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fardjallah Eyemene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIEUR Luc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHMUCK Adrien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empereur Orane</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1089,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="1" sqref="A:B F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1372,7 +1397,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A:B G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2552,7 +2577,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="1" sqref="A:B E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2991,7 +3016,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="A:B E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3093,7 +3118,7 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="A:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3114,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <f aca="false">COUNTIF(Répartition!F:F,A3)</f>
+        <f aca="false">COUNTIF(Répartition!E:E,A3)</f>
         <v>15</v>
       </c>
     </row>
@@ -3123,7 +3148,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <f aca="false">COUNTIF(Répartition!F:F,A4)</f>
+        <f aca="false">COUNTIF(Répartition!E:E,A4)</f>
         <v>8</v>
       </c>
     </row>
@@ -3132,7 +3157,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
-        <f aca="false">COUNTIF(Répartition!F:F,A5)</f>
+        <f aca="false">COUNTIF(Répartition!E:E,A5)</f>
         <v>7</v>
       </c>
     </row>
@@ -3141,7 +3166,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <f aca="false">COUNTIF(Répartition!F:F,A6)</f>
+        <f aca="false">COUNTIF(Répartition!E:E,A6)</f>
         <v>5</v>
       </c>
     </row>
@@ -3150,7 +3175,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <f aca="false">COUNTIF(Répartition!F:F,A7)</f>
+        <f aca="false">COUNTIF(Répartition!E:E,A7)</f>
         <v>6</v>
       </c>
     </row>
@@ -3159,7 +3184,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <f aca="false">COUNTIF(Répartition!F:F,A8)</f>
+        <f aca="false">COUNTIF(Répartition!E:E,A8)</f>
         <v>8</v>
       </c>
     </row>
@@ -3179,20 +3204,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="25.7755102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="25.7755102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -3205,10 +3230,7 @@
       <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3225,14 +3247,11 @@
       <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="7" t="n">
+      <c r="E2" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -3245,10 +3264,7 @@
       <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="7" t="n">
+      <c r="E3" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3265,10 +3281,7 @@
       <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="7" t="n">
+      <c r="E4" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3285,10 +3298,7 @@
       <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="7" t="n">
+      <c r="E5" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3305,14 +3315,11 @@
       <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="7" t="n">
+      <c r="E6" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -3325,14 +3332,11 @@
       <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="7" t="n">
+      <c r="E7" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
@@ -3345,14 +3349,11 @@
       <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="7" t="n">
+      <c r="E8" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>78</v>
       </c>
@@ -3365,10 +3366,7 @@
       <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="7" t="n">
+      <c r="E9" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,14 +3383,11 @@
       <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="7" t="n">
+      <c r="E10" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -3405,14 +3400,11 @@
       <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="7" t="n">
+      <c r="E11" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>87</v>
       </c>
@@ -3425,14 +3417,11 @@
       <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="7" t="n">
+      <c r="E12" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>90</v>
       </c>
@@ -3445,10 +3434,7 @@
       <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="7" t="n">
+      <c r="E13" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3465,14 +3451,11 @@
       <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="7" t="n">
+      <c r="E14" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -3485,14 +3468,11 @@
       <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="7" t="n">
+      <c r="E15" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>100</v>
       </c>
@@ -3505,10 +3485,7 @@
       <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="7" t="n">
+      <c r="E16" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3525,10 +3502,7 @@
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="7" t="n">
+      <c r="E17" s="7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3545,10 +3519,7 @@
       <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="7" t="n">
+      <c r="E18" s="7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3565,10 +3536,7 @@
       <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="7" t="n">
+      <c r="E19" s="7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3585,14 +3553,11 @@
       <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="7" t="n">
+      <c r="E20" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>128</v>
       </c>
@@ -3605,14 +3570,11 @@
       <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="7" t="n">
+      <c r="E21" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>132</v>
       </c>
@@ -3625,14 +3587,11 @@
       <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="7" t="n">
+      <c r="E22" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>135</v>
       </c>
@@ -3645,14 +3604,11 @@
       <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="7" t="n">
+      <c r="E23" s="7" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>139</v>
       </c>
@@ -3665,10 +3621,7 @@
       <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="7" t="n">
+      <c r="E24" s="7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3685,14 +3638,11 @@
       <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="7" t="n">
+      <c r="E25" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>162</v>
       </c>
@@ -3705,14 +3655,11 @@
       <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="7" t="n">
+      <c r="E26" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>165</v>
       </c>
@@ -3725,14 +3672,11 @@
       <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="n">
+      <c r="E27" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>168</v>
       </c>
@@ -3745,14 +3689,11 @@
       <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="7" t="n">
+      <c r="E28" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>171</v>
       </c>
@@ -3765,14 +3706,11 @@
       <c r="D29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="7" t="n">
+      <c r="E29" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>175</v>
       </c>
@@ -3785,14 +3723,11 @@
       <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="7" t="n">
+      <c r="E30" s="7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>178</v>
       </c>
@@ -3805,10 +3740,7 @@
       <c r="D31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="7" t="n">
+      <c r="E31" s="7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3825,14 +3757,11 @@
       <c r="D32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="7" t="n">
+      <c r="E32" s="7" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>152</v>
       </c>
@@ -3845,10 +3774,7 @@
       <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="n">
+      <c r="E33" s="7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3865,14 +3791,11 @@
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="7" t="n">
+      <c r="E34" s="7" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>181</v>
       </c>
@@ -3885,10 +3808,7 @@
       <c r="D35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="7" t="n">
+      <c r="E35" s="7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3905,15 +3825,12 @@
       <c r="D36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="7" t="n">
+      <c r="E36" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>122</v>
       </c>
@@ -3926,14 +3843,11 @@
       <c r="D37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="7" t="n">
+      <c r="E37" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>125</v>
       </c>
@@ -3946,14 +3860,11 @@
       <c r="D38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="7" t="n">
+      <c r="E38" s="7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>146</v>
       </c>
@@ -3966,10 +3877,7 @@
       <c r="D39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="7" t="n">
+      <c r="E39" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3986,10 +3894,7 @@
       <c r="D40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="7" t="n">
+      <c r="E40" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4006,10 +3911,7 @@
       <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F41" s="7" t="n">
+      <c r="E41" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4026,33 +3928,30 @@
       <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="7" t="n">
+      <c r="E42" s="7" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="7" t="n">
+      <c r="E43" s="7" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>231</v>
@@ -4060,35 +3959,32 @@
       <c r="D44" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F44" s="7" t="n">
+      <c r="E44" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F45" s="7" t="n">
+      <c r="E45" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>239</v>
@@ -4096,20 +3992,17 @@
       <c r="D46" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F46" s="7" t="n">
+      <c r="E46" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G46" s="3"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>243</v>
@@ -4117,50 +4010,47 @@
       <c r="D47" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="F47" s="7" t="n">
+      <c r="E47" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="7" t="n">
+      <c r="E48" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G48" s="3"/>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="7" t="n">
+      <c r="E49" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>253</v>
@@ -4168,13 +4058,885 @@
       <c r="D50" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A:B"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="25.7755102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F50" s="7" t="n">
+      <c r="B43" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G50" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Organisation+Recensement.xlsx
+++ b/Organisation+Recensement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Resume" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,13 +14,13 @@
     <sheet name="Abst ATS" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Décompte" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Répartition" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Répartition_2" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Répartition_Rémi" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="RépartitionTraité" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Feuille9" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">ATS!$A$1:$I$41</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TSI!$E$1:$E$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">ATS!$A$1:$I$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TSI!$E$1:$E$19</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TSI!$D$1:$D$19</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="356">
   <si>
     <t xml:space="preserve">ATS</t>
   </si>
@@ -796,6 +796,18 @@
     <t xml:space="preserve">ENSTA Paris</t>
   </si>
   <si>
+    <t xml:space="preserve">solal.nathan@ens-paris-saclay.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NATHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENS Paris Saclay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delarbre Maxime</t>
   </si>
   <si>
@@ -851,6 +863,243 @@
   </si>
   <si>
     <t xml:space="preserve">Empereur Orane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan Solal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertin Fabien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Lazzer Damien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periol Léo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bel Alexandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESIREM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabanel Matthis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verda Clément</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morel Grégory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supaéro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brocheton Romain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renaud Tristan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boutaj Sofiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telecom ParisTech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Récap et vérification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salle physique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salon Jitsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlyGR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlyGR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlyGR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlyGR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlyGR5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlyGR6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlyGR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlyGR8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlyGR9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlyGR10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlyGR11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlyGR12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidéoconférence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1](https://meet.jit.si/Forum_Branly_SG1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2](https://meet.jit.si/Forum_Branly_SG2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3](https://meet.jit.si/Forum_Branly_SG3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4](https://meet.jit.si/Forum_Branly_SG4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[5](https://meet.jit.si/Forum_Branly_SG5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[6](https://meet.jit.si/Forum_Branly_SG6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[7](https://meet.jit.si/Forum_Branly_SG7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[8](https://meet.jit.si/Forum_Branly_SG8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[9](https://meet.jit.si/Forum_Branly_SG9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[10](https://meet.jit.si/Forum_Branly_SG10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[11](https://meet.jit.si/Forum_Branly_SG11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[12](https://meet.jit.si/Forum_Branly_SG12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">École </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 1](https://meet.jit.si/Forum_Branly_SG1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 3](https://meet.jit.si/Forum_Branly_SG3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 2](https://meet.jit.si/Forum_Branly_SG2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 10](https://meet.jit.si/Forum_Branly_SG10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 12](https://meet.jit.si/Forum_Branly_SG12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 5](https://meet.jit.si/Forum_Branly_SG5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 4](https://meet.jit.si/Forum_Branly_SG4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 8](https://meet.jit.si/Forum_Branly_SG8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 9](https://meet.jit.si/Forum_Branly_SG9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 7](https://meet.jit.si/Forum_Branly_SG7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 6](https://meet.jit.si/Forum_Branly_SG6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 11](https://meet.jit.si/Forum_Branly_SG11)</t>
   </si>
 </sst>
 </file>
@@ -859,9 +1108,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY\ HH:MM"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -896,6 +1145,28 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -943,7 +1214,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -967,8 +1238,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -997,18 +1271,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1025,16 +1348,16 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0070C0"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0563C1"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1082,26 +1405,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="1" sqref="A:B F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.530612244898"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E3" s="0" t="s">
         <v>10</v>
       </c>
@@ -1174,7 +1494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="0" t="s">
         <v>14</v>
       </c>
@@ -1191,7 +1511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="0" t="s">
         <v>17</v>
       </c>
@@ -1208,7 +1528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
@@ -1229,7 +1549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
         <v>23</v>
       </c>
@@ -1247,7 +1567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="0" t="s">
         <v>26</v>
       </c>
@@ -1258,7 +1578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="0" t="s">
         <v>28</v>
       </c>
@@ -1269,7 +1589,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>30</v>
       </c>
@@ -1284,7 +1604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
         <v>32</v>
       </c>
@@ -1292,7 +1612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
         <v>33</v>
       </c>
@@ -1308,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
         <v>35</v>
       </c>
@@ -1316,7 +1636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
         <v>36</v>
       </c>
@@ -1324,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
         <v>37</v>
       </c>
@@ -1332,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
         <v>38</v>
       </c>
@@ -1340,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
         <v>39</v>
       </c>
@@ -1348,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
         <v>40</v>
       </c>
@@ -1356,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
         <v>24</v>
       </c>
@@ -1364,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>41</v>
       </c>
@@ -1381,7 +1701,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1390,30 +1710,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A:B G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.9540816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="49.4081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="53.0510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.530612244898"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="49.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -1442,7 +1760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>44124.469849537</v>
       </c>
@@ -1469,7 +1787,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>44148.5090625</v>
       </c>
@@ -1496,7 +1814,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>44124.4403356482</v>
       </c>
@@ -1523,7 +1841,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>44124.4364351852</v>
       </c>
@@ -1550,7 +1868,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>44158.5037268519</v>
       </c>
@@ -1577,7 +1895,7 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>44125.9258217593</v>
       </c>
@@ -1604,7 +1922,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>44124.6619907408</v>
       </c>
@@ -1631,7 +1949,7 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>44136.8373726852</v>
       </c>
@@ -1658,7 +1976,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>44131.3377199074</v>
       </c>
@@ -1685,7 +2003,7 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>44129.5723263889</v>
       </c>
@@ -1712,7 +2030,7 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>44124.4328587963</v>
       </c>
@@ -1739,7 +2057,7 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>44139.6691319445</v>
       </c>
@@ -1766,7 +2084,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>44124.4483217593</v>
       </c>
@@ -1793,7 +2111,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>44130.5321296296</v>
       </c>
@@ -1820,7 +2138,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>44125.7740972222</v>
       </c>
@@ -1847,7 +2165,7 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>44131.6447569444</v>
       </c>
@@ -1874,7 +2192,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>44124.6309722222</v>
       </c>
@@ -1901,7 +2219,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>44124.5731597222</v>
       </c>
@@ -1928,7 +2246,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>44124.4185300926</v>
       </c>
@@ -1955,7 +2273,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>44124.5926273148</v>
       </c>
@@ -1982,7 +2300,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>44125.5056365741</v>
       </c>
@@ -2009,7 +2327,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>44125.8017476852</v>
       </c>
@@ -2036,7 +2354,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <v>44130.7245138889</v>
       </c>
@@ -2063,7 +2381,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>44164.5417476852</v>
       </c>
@@ -2092,7 +2410,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>44124.4114467593</v>
       </c>
@@ -2119,7 +2437,7 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>44124.489375</v>
       </c>
@@ -2146,7 +2464,7 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>44126.4032291667</v>
       </c>
@@ -2173,7 +2491,7 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>44131.5667708333</v>
       </c>
@@ -2200,7 +2518,7 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>44139.8141087963</v>
       </c>
@@ -2227,7 +2545,7 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>44129.6023611111</v>
       </c>
@@ -2254,7 +2572,7 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <v>44165.8958333333</v>
       </c>
@@ -2283,7 +2601,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>44174.3947685185</v>
       </c>
@@ -2310,7 +2628,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>44130.4561689815</v>
       </c>
@@ -2337,7 +2655,7 @@
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
         <v>44124.411099537</v>
       </c>
@@ -2364,7 +2682,7 @@
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
         <v>44124.407662037</v>
       </c>
@@ -2391,7 +2709,7 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
         <v>44128.6987847222</v>
       </c>
@@ -2418,7 +2736,7 @@
       </c>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
         <v>44128.405162037</v>
       </c>
@@ -2445,7 +2763,7 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>44164.3688773148</v>
       </c>
@@ -2474,7 +2792,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>44138.6074189815</v>
       </c>
@@ -2501,7 +2819,7 @@
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>44124.4694097222</v>
       </c>
@@ -2528,7 +2846,7 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
         <v>44140.7607523148</v>
       </c>
@@ -2555,12 +2873,12 @@
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="19.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:I41"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2570,475 +2888,564 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="1" sqref="A:B E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
-        <v>44156.742974537</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="67.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>44156.7525578704</v>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="65.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="27" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="40.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>44156.7543402778</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="27" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="27" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="27" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="27.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
-        <v>44156.7585300926</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D21" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="40.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>44156.7587847222</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="40.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>44156.7594097222</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>44156.7740277778</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>44156.819837963</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="40.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>44156.873900463</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>44157.7289699074</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>44157.8271180556</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
-        <v>44157.9830439815</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>44158.3541203704</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="27.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
-        <v>44161.4659606482</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
-        <v>44161.8659375</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
-        <v>44165.7933912037</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
-        <v>44168.8376388889</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
-        <v>44169.3711226852</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E19"/>
+  <autoFilter ref="D1:D19"/>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1" display="solal.nathan@ens-paris-saclay.fr"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="A:B E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.530612244898"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="93.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="n">
         <v>44124.4134490741</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>30</v>
@@ -3049,21 +3456,21 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="67.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="77.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>44160.4302314815</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>30</v>
@@ -3074,21 +3481,21 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>44126.4414236111</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>55</v>
@@ -3102,7 +3509,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3111,30 +3518,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="A:B"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -3143,7 +3547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
@@ -3152,7 +3556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
@@ -3161,7 +3565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
@@ -3170,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
@@ -3179,7 +3583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
@@ -3191,7 +3595,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -3200,24 +3604,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A:B"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="25.7755102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="25.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -3230,11 +3633,11 @@
       <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -3247,11 +3650,11 @@
       <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -3264,11 +3667,11 @@
       <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -3281,11 +3684,11 @@
       <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -3298,11 +3701,11 @@
       <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -3315,11 +3718,11 @@
       <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -3332,11 +3735,11 @@
       <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
@@ -3349,11 +3752,11 @@
       <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>78</v>
       </c>
@@ -3366,11 +3769,11 @@
       <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
@@ -3383,11 +3786,11 @@
       <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -3400,11 +3803,11 @@
       <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>87</v>
       </c>
@@ -3417,11 +3820,11 @@
       <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>90</v>
       </c>
@@ -3434,11 +3837,11 @@
       <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>93</v>
       </c>
@@ -3451,11 +3854,11 @@
       <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -3468,11 +3871,11 @@
       <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>100</v>
       </c>
@@ -3485,11 +3888,11 @@
       <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>107</v>
       </c>
@@ -3502,11 +3905,11 @@
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>110</v>
       </c>
@@ -3519,11 +3922,11 @@
       <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>113</v>
       </c>
@@ -3536,11 +3939,11 @@
       <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>116</v>
       </c>
@@ -3553,11 +3956,11 @@
       <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>128</v>
       </c>
@@ -3570,11 +3973,11 @@
       <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>132</v>
       </c>
@@ -3587,11 +3990,11 @@
       <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="7" t="n">
+      <c r="E22" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>135</v>
       </c>
@@ -3604,11 +4007,11 @@
       <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>139</v>
       </c>
@@ -3621,11 +4024,11 @@
       <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>119</v>
       </c>
@@ -3638,11 +4041,11 @@
       <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>162</v>
       </c>
@@ -3655,11 +4058,11 @@
       <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>165</v>
       </c>
@@ -3672,11 +4075,11 @@
       <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>168</v>
       </c>
@@ -3689,11 +4092,11 @@
       <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>171</v>
       </c>
@@ -3706,11 +4109,11 @@
       <c r="D29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="7" t="n">
+      <c r="E29" s="14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>175</v>
       </c>
@@ -3723,11 +4126,11 @@
       <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="7" t="n">
+      <c r="E30" s="14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>178</v>
       </c>
@@ -3740,11 +4143,11 @@
       <c r="D31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>143</v>
       </c>
@@ -3757,11 +4160,11 @@
       <c r="D32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="7" t="n">
+      <c r="E32" s="14" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>152</v>
       </c>
@@ -3774,11 +4177,11 @@
       <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="7" t="n">
+      <c r="E33" s="14" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>159</v>
       </c>
@@ -3791,11 +4194,11 @@
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="14" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>181</v>
       </c>
@@ -3808,11 +4211,11 @@
       <c r="D35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="14" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
@@ -3825,12 +4228,12 @@
       <c r="D36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="14" t="n">
         <v>4</v>
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>122</v>
       </c>
@@ -3843,11 +4246,11 @@
       <c r="D37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="14" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>125</v>
       </c>
@@ -3860,11 +4263,11 @@
       <c r="D38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="7" t="n">
+      <c r="E38" s="14" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>146</v>
       </c>
@@ -3877,11 +4280,11 @@
       <c r="D39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="14" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>149</v>
       </c>
@@ -3894,11 +4297,11 @@
       <c r="D40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="14" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>155</v>
       </c>
@@ -3911,11 +4314,11 @@
       <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="7" t="n">
+      <c r="E41" s="14" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>156</v>
       </c>
@@ -3928,30 +4331,30 @@
       <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="7" t="n">
+      <c r="E42" s="14" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="14" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>231</v>
@@ -3959,32 +4362,32 @@
       <c r="D44" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="7" t="n">
+      <c r="E44" s="14" t="n">
         <v>6</v>
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E45" s="7" t="n">
+      <c r="E45" s="14" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>239</v>
@@ -3992,17 +4395,17 @@
       <c r="D46" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="7" t="n">
+      <c r="E46" s="14" t="n">
         <v>6</v>
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>243</v>
@@ -4010,47 +4413,47 @@
       <c r="D47" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="7" t="n">
+      <c r="E47" s="14" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="7" t="n">
+      <c r="E48" s="14" t="n">
         <v>6</v>
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="7" t="n">
+      <c r="E49" s="14" t="n">
         <v>6</v>
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>253</v>
@@ -4058,7 +4461,7 @@
       <c r="D50" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="7" t="n">
+      <c r="E50" s="14" t="n">
         <v>6</v>
       </c>
       <c r="F50" s="3"/>
@@ -4066,7 +4469,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -4075,24 +4478,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A:B"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E77" activeCellId="0" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="25.7755102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="25.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="11.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -4105,11 +4507,11 @@
       <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -4122,11 +4524,11 @@
       <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -4139,11 +4541,11 @@
       <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>62</v>
       </c>
@@ -4156,11 +4558,11 @@
       <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
@@ -4173,11 +4575,11 @@
       <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -4190,11 +4592,11 @@
       <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -4207,11 +4609,11 @@
       <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
@@ -4224,11 +4626,11 @@
       <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>78</v>
       </c>
@@ -4241,11 +4643,11 @@
       <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>81</v>
       </c>
@@ -4258,11 +4660,11 @@
       <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -4275,11 +4677,11 @@
       <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>87</v>
       </c>
@@ -4292,11 +4694,11 @@
       <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>90</v>
       </c>
@@ -4309,11 +4711,11 @@
       <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>93</v>
       </c>
@@ -4326,11 +4728,11 @@
       <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -4343,11 +4745,11 @@
       <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>100</v>
       </c>
@@ -4360,11 +4762,11 @@
       <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>107</v>
       </c>
@@ -4377,11 +4779,11 @@
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>110</v>
       </c>
@@ -4394,11 +4796,11 @@
       <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>113</v>
       </c>
@@ -4411,11 +4813,11 @@
       <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>116</v>
       </c>
@@ -4428,11 +4830,11 @@
       <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>128</v>
       </c>
@@ -4445,11 +4847,11 @@
       <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>132</v>
       </c>
@@ -4462,11 +4864,11 @@
       <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>135</v>
       </c>
@@ -4479,11 +4881,11 @@
       <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>139</v>
       </c>
@@ -4496,11 +4898,11 @@
       <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>119</v>
       </c>
@@ -4513,11 +4915,11 @@
       <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
         <v>162</v>
       </c>
@@ -4530,11 +4932,11 @@
       <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>165</v>
       </c>
@@ -4547,11 +4949,11 @@
       <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>168</v>
       </c>
@@ -4564,11 +4966,11 @@
       <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>171</v>
       </c>
@@ -4581,11 +4983,11 @@
       <c r="D29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
         <v>175</v>
       </c>
@@ -4598,11 +5000,11 @@
       <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
         <v>178</v>
       </c>
@@ -4615,11 +5017,11 @@
       <c r="D31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
         <v>143</v>
       </c>
@@ -4632,11 +5034,11 @@
       <c r="D32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
         <v>152</v>
       </c>
@@ -4649,11 +5051,11 @@
       <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>159</v>
       </c>
@@ -4666,11 +5068,11 @@
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>181</v>
       </c>
@@ -4683,11 +5085,11 @@
       <c r="D35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
         <v>104</v>
       </c>
@@ -4700,12 +5102,12 @@
       <c r="D36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="7" t="n">
-        <v>4</v>
+      <c r="E36" s="14" t="n">
+        <v>7</v>
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
         <v>122</v>
       </c>
@@ -4718,11 +5120,11 @@
       <c r="D37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="7" t="n">
+      <c r="E37" s="14" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
         <v>125</v>
       </c>
@@ -4735,11 +5137,11 @@
       <c r="D38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="7" t="n">
+      <c r="E38" s="14" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="39" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
         <v>146</v>
       </c>
@@ -4752,11 +5154,11 @@
       <c r="D39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="7" t="n">
+      <c r="E39" s="14" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
         <v>149</v>
       </c>
@@ -4769,11 +5171,11 @@
       <c r="D40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="7" t="n">
+      <c r="E40" s="14" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
         <v>155</v>
       </c>
@@ -4786,11 +5188,11 @@
       <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>156</v>
       </c>
@@ -4803,30 +5205,30 @@
       <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="7" t="n">
+      <c r="E43" s="14" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>231</v>
@@ -4834,32 +5236,35 @@
       <c r="D44" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="7" t="n">
-        <v>6</v>
+      <c r="E44" s="14" t="n">
+        <v>5</v>
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E45" s="7" t="n">
-        <v>6</v>
+      <c r="D45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="14" t="n">
+        <v>9</v>
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>239</v>
@@ -4867,17 +5272,17 @@
       <c r="D46" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="7" t="n">
-        <v>6</v>
+      <c r="E46" s="14" t="n">
+        <v>11</v>
       </c>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>243</v>
@@ -4885,47 +5290,53 @@
       <c r="D47" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="7" t="n">
-        <v>6</v>
+      <c r="E47" s="14" t="n">
+        <v>3</v>
       </c>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="7" t="n">
+      <c r="D48" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="14" t="n">
         <v>6</v>
       </c>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="7" t="n">
-        <v>6</v>
+      <c r="D49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="14" t="n">
+        <v>9</v>
       </c>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>253</v>
@@ -4933,18 +5344,3422 @@
       <c r="D50" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="7" t="n">
-        <v>6</v>
+      <c r="E50" s="14" t="n">
+        <v>12</v>
       </c>
       <c r="F50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E51" s="14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=1")</f>
+        <v>4</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=2")</f>
+        <v>8</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=3")</f>
+        <v>4</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=4")</f>
+        <v>7</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=5")</f>
+        <v>7</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=6")</f>
+        <v>4</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=7")</f>
+        <v>4</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=8")</f>
+        <v>4</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=9")</f>
+        <v>4</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=10")</f>
+        <v>7</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=11")</f>
+        <v>2</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=12")</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>327</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G77"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="39.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="44.16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <f aca="false">VLOOKUP(E2,$A$66:$E$77,5)</f>
+        <v>[1](https://meet.jit.si/Forum_Branly_SG1)</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">VLOOKUP(E2,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <f aca="false">VLOOKUP(E3,$A$66:$E$77,5)</f>
+        <v>[3](https://meet.jit.si/Forum_Branly_SG3)</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">VLOOKUP(E3,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <f aca="false">VLOOKUP(E4,$A$66:$E$77,5)</f>
+        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">VLOOKUP(E4,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <f aca="false">VLOOKUP(E5,$A$66:$E$77,5)</f>
+        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">VLOOKUP(E5,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <f aca="false">VLOOKUP(E6,$A$66:$E$77,5)</f>
+        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">VLOOKUP(E6,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <f aca="false">VLOOKUP(E7,$A$66:$E$77,5)</f>
+        <v>[1](https://meet.jit.si/Forum_Branly_SG1)</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">VLOOKUP(E7,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <f aca="false">VLOOKUP(E8,$A$66:$E$77,5)</f>
+        <v>[3](https://meet.jit.si/Forum_Branly_SG3)</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">VLOOKUP(E8,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <f aca="false">VLOOKUP(E9,$A$66:$E$77,5)</f>
+        <v>[3](https://meet.jit.si/Forum_Branly_SG3)</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">VLOOKUP(E9,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <f aca="false">VLOOKUP(E10,$A$66:$E$77,5)</f>
+        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">VLOOKUP(E10,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <f aca="false">VLOOKUP(E11,$A$66:$E$77,5)</f>
+        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">VLOOKUP(E11,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <f aca="false">VLOOKUP(E12,$A$66:$E$77,5)</f>
+        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">VLOOKUP(E12,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <f aca="false">VLOOKUP(E13,$A$66:$E$77,5)</f>
+        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">VLOOKUP(E13,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <f aca="false">VLOOKUP(E14,$A$66:$E$77,5)</f>
+        <v>[1](https://meet.jit.si/Forum_Branly_SG1)</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">VLOOKUP(E14,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <f aca="false">VLOOKUP(E15,$A$66:$E$77,5)</f>
+        <v>[1](https://meet.jit.si/Forum_Branly_SG1)</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">VLOOKUP(E15,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <f aca="false">VLOOKUP(E16,$A$66:$E$77,5)</f>
+        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">VLOOKUP(E16,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <f aca="false">VLOOKUP(E17,$A$66:$E$77,5)</f>
+        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">VLOOKUP(E17,$A$66:$E$77,3)</f>
+        <v>B106</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <f aca="false">VLOOKUP(E18,$A$66:$E$77,5)</f>
+        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">VLOOKUP(E18,$A$66:$E$77,3)</f>
+        <v>B106</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <f aca="false">VLOOKUP(E19,$A$66:$E$77,5)</f>
+        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">VLOOKUP(E19,$A$66:$E$77,3)</f>
+        <v>B106</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <f aca="false">VLOOKUP(E20,$A$66:$E$77,5)</f>
+        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">VLOOKUP(E20,$A$66:$E$77,3)</f>
+        <v>B106</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <f aca="false">VLOOKUP(E21,$A$66:$E$77,5)</f>
+        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">VLOOKUP(E21,$A$66:$E$77,3)</f>
+        <v>B106</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <f aca="false">VLOOKUP(E22,$A$66:$E$77,5)</f>
+        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">VLOOKUP(E22,$A$66:$E$77,3)</f>
+        <v>B106</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <f aca="false">VLOOKUP(E23,$A$66:$E$77,5)</f>
+        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">VLOOKUP(E23,$A$66:$E$77,3)</f>
+        <v>B106</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <f aca="false">VLOOKUP(E24,$A$66:$E$77,5)</f>
+        <v>[12](https://meet.jit.si/Forum_Branly_SG12)</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">VLOOKUP(E24,$A$66:$E$77,3)</f>
+        <v>B104</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <f aca="false">VLOOKUP(E25,$A$66:$E$77,5)</f>
+        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">VLOOKUP(E25,$A$66:$E$77,3)</f>
+        <v>B118</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <f aca="false">VLOOKUP(E26,$A$66:$E$77,5)</f>
+        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">VLOOKUP(E26,$A$66:$E$77,3)</f>
+        <v>B114</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" s="0" t="str">
+        <f aca="false">VLOOKUP(E27,$A$66:$E$77,5)</f>
+        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+      </c>
+      <c r="G27" s="0" t="str">
+        <f aca="false">VLOOKUP(E27,$A$66:$E$77,3)</f>
+        <v>B114</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" s="0" t="str">
+        <f aca="false">VLOOKUP(E28,$A$66:$E$77,5)</f>
+        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+      </c>
+      <c r="G28" s="0" t="str">
+        <f aca="false">VLOOKUP(E28,$A$66:$E$77,3)</f>
+        <v>B114</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" s="0" t="str">
+        <f aca="false">VLOOKUP(E29,$A$66:$E$77,5)</f>
+        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+      </c>
+      <c r="G29" s="0" t="str">
+        <f aca="false">VLOOKUP(E29,$A$66:$E$77,3)</f>
+        <v>B114</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" s="0" t="str">
+        <f aca="false">VLOOKUP(E30,$A$66:$E$77,5)</f>
+        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+      </c>
+      <c r="G30" s="0" t="str">
+        <f aca="false">VLOOKUP(E30,$A$66:$E$77,3)</f>
+        <v>B114</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" s="0" t="str">
+        <f aca="false">VLOOKUP(E31,$A$66:$E$77,5)</f>
+        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+      </c>
+      <c r="G31" s="0" t="str">
+        <f aca="false">VLOOKUP(E31,$A$66:$E$77,3)</f>
+        <v>B114</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" s="0" t="str">
+        <f aca="false">VLOOKUP(E32,$A$66:$E$77,5)</f>
+        <v>[8](https://meet.jit.si/Forum_Branly_SG8)</v>
+      </c>
+      <c r="G32" s="0" t="str">
+        <f aca="false">VLOOKUP(E32,$A$66:$E$77,3)</f>
+        <v>B103</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" s="0" t="str">
+        <f aca="false">VLOOKUP(E33,$A$66:$E$77,5)</f>
+        <v>[9](https://meet.jit.si/Forum_Branly_SG9)</v>
+      </c>
+      <c r="G33" s="0" t="str">
+        <f aca="false">VLOOKUP(E33,$A$66:$E$77,3)</f>
+        <v>B111</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" s="0" t="str">
+        <f aca="false">VLOOKUP(E34,$A$66:$E$77,5)</f>
+        <v>[8](https://meet.jit.si/Forum_Branly_SG8)</v>
+      </c>
+      <c r="G34" s="0" t="str">
+        <f aca="false">VLOOKUP(E34,$A$66:$E$77,3)</f>
+        <v>B103</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F35" s="0" t="str">
+        <f aca="false">VLOOKUP(E35,$A$66:$E$77,5)</f>
+        <v>[7](https://meet.jit.si/Forum_Branly_SG7)</v>
+      </c>
+      <c r="G35" s="0" t="str">
+        <f aca="false">VLOOKUP(E35,$A$66:$E$77,3)</f>
+        <v>B113</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" s="0" t="str">
+        <f aca="false">VLOOKUP(E36,$A$66:$E$77,5)</f>
+        <v>[7](https://meet.jit.si/Forum_Branly_SG7)</v>
+      </c>
+      <c r="G36" s="0" t="str">
+        <f aca="false">VLOOKUP(E36,$A$66:$E$77,3)</f>
+        <v>B113</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" s="0" t="str">
+        <f aca="false">VLOOKUP(E37,$A$66:$E$77,5)</f>
+        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+      </c>
+      <c r="G37" s="0" t="str">
+        <f aca="false">VLOOKUP(E37,$A$66:$E$77,3)</f>
+        <v>B118</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" s="0" t="str">
+        <f aca="false">VLOOKUP(E38,$A$66:$E$77,5)</f>
+        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+      </c>
+      <c r="G38" s="0" t="str">
+        <f aca="false">VLOOKUP(E38,$A$66:$E$77,3)</f>
+        <v>B118</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" s="0" t="str">
+        <f aca="false">VLOOKUP(E39,$A$66:$E$77,5)</f>
+        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+      </c>
+      <c r="G39" s="0" t="str">
+        <f aca="false">VLOOKUP(E39,$A$66:$E$77,3)</f>
+        <v>B118</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" s="0" t="str">
+        <f aca="false">VLOOKUP(E40,$A$66:$E$77,5)</f>
+        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+      </c>
+      <c r="G40" s="0" t="str">
+        <f aca="false">VLOOKUP(E40,$A$66:$E$77,3)</f>
+        <v>B118</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" s="0" t="str">
+        <f aca="false">VLOOKUP(E41,$A$66:$E$77,5)</f>
+        <v>[6](https://meet.jit.si/Forum_Branly_SG6)</v>
+      </c>
+      <c r="G41" s="0" t="str">
+        <f aca="false">VLOOKUP(E41,$A$66:$E$77,3)</f>
+        <v>B115</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F42" s="0" t="str">
+        <f aca="false">VLOOKUP(E42,$A$66:$E$77,5)</f>
+        <v>[6](https://meet.jit.si/Forum_Branly_SG6)</v>
+      </c>
+      <c r="G42" s="0" t="str">
+        <f aca="false">VLOOKUP(E42,$A$66:$E$77,3)</f>
+        <v>B115</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" s="0" t="str">
+        <f aca="false">VLOOKUP(E43,$A$66:$E$77,5)</f>
+        <v>[6](https://meet.jit.si/Forum_Branly_SG6)</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">VLOOKUP(E43,$A$66:$E$77,3)</f>
+        <v>B115</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" s="0" t="str">
+        <f aca="false">VLOOKUP(E44,$A$66:$E$77,5)</f>
+        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+      </c>
+      <c r="G44" s="0" t="str">
+        <f aca="false">VLOOKUP(E44,$A$66:$E$77,3)</f>
+        <v>B118</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F45" s="0" t="str">
+        <f aca="false">VLOOKUP(E45,$A$66:$E$77,5)</f>
+        <v>[9](https://meet.jit.si/Forum_Branly_SG9)</v>
+      </c>
+      <c r="G45" s="0" t="str">
+        <f aca="false">VLOOKUP(E45,$A$66:$E$77,3)</f>
+        <v>B111</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F46" s="0" t="str">
+        <f aca="false">VLOOKUP(E46,$A$66:$E$77,5)</f>
+        <v>[11](https://meet.jit.si/Forum_Branly_SG11)</v>
+      </c>
+      <c r="G46" s="0" t="str">
+        <f aca="false">VLOOKUP(E46,$A$66:$E$77,3)</f>
+        <v>B113</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" s="0" t="str">
+        <f aca="false">VLOOKUP(E47,$A$66:$E$77,5)</f>
+        <v>[3](https://meet.jit.si/Forum_Branly_SG3)</v>
+      </c>
+      <c r="G47" s="0" t="str">
+        <f aca="false">VLOOKUP(E47,$A$66:$E$77,3)</f>
+        <v>B116</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" s="0" t="str">
+        <f aca="false">VLOOKUP(E48,$A$66:$E$77,5)</f>
+        <v>[6](https://meet.jit.si/Forum_Branly_SG6)</v>
+      </c>
+      <c r="G48" s="0" t="str">
+        <f aca="false">VLOOKUP(E48,$A$66:$E$77,3)</f>
+        <v>B115</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" s="0" t="str">
+        <f aca="false">VLOOKUP(E49,$A$66:$E$77,5)</f>
+        <v>[9](https://meet.jit.si/Forum_Branly_SG9)</v>
+      </c>
+      <c r="G49" s="0" t="str">
+        <f aca="false">VLOOKUP(E49,$A$66:$E$77,3)</f>
+        <v>B111</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F50" s="0" t="str">
+        <f aca="false">VLOOKUP(E50,$A$66:$E$77,5)</f>
+        <v>[12](https://meet.jit.si/Forum_Branly_SG12)</v>
+      </c>
+      <c r="G50" s="0" t="str">
+        <f aca="false">VLOOKUP(E50,$A$66:$E$77,3)</f>
+        <v>B104</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E51" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F51" s="0" t="str">
+        <f aca="false">VLOOKUP(E51,$A$66:$E$77,5)</f>
+        <v>[12](https://meet.jit.si/Forum_Branly_SG12)</v>
+      </c>
+      <c r="G51" s="0" t="str">
+        <f aca="false">VLOOKUP(E51,$A$66:$E$77,3)</f>
+        <v>B104</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F52" s="0" t="str">
+        <f aca="false">VLOOKUP(E52,$A$66:$E$77,5)</f>
+        <v>[9](https://meet.jit.si/Forum_Branly_SG9)</v>
+      </c>
+      <c r="G52" s="0" t="str">
+        <f aca="false">VLOOKUP(E52,$A$66:$E$77,3)</f>
+        <v>B111</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F53" s="0" t="str">
+        <f aca="false">VLOOKUP(E53,$A$66:$E$77,5)</f>
+        <v>[7](https://meet.jit.si/Forum_Branly_SG7)</v>
+      </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">VLOOKUP(E53,$A$66:$E$77,3)</f>
+        <v>B113</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F54" s="0" t="str">
+        <f aca="false">VLOOKUP(E54,$A$66:$E$77,5)</f>
+        <v>[8](https://meet.jit.si/Forum_Branly_SG8)</v>
+      </c>
+      <c r="G54" s="0" t="str">
+        <f aca="false">VLOOKUP(E54,$A$66:$E$77,3)</f>
+        <v>B103</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F55" s="0" t="str">
+        <f aca="false">VLOOKUP(E55,$A$66:$E$77,5)</f>
+        <v>[8](https://meet.jit.si/Forum_Branly_SG8)</v>
+      </c>
+      <c r="G55" s="0" t="str">
+        <f aca="false">VLOOKUP(E55,$A$66:$E$77,3)</f>
+        <v>B103</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F56" s="0" t="str">
+        <f aca="false">VLOOKUP(E56,$A$66:$E$77,5)</f>
+        <v>[7](https://meet.jit.si/Forum_Branly_SG7)</v>
+      </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">VLOOKUP(E56,$A$66:$E$77,3)</f>
+        <v>B113</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F57" s="0" t="str">
+        <f aca="false">VLOOKUP(E57,$A$66:$E$77,5)</f>
+        <v>[11](https://meet.jit.si/Forum_Branly_SG11)</v>
+      </c>
+      <c r="G57" s="0" t="str">
+        <f aca="false">VLOOKUP(E57,$A$66:$E$77,3)</f>
+        <v>B113</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F58" s="0" t="str">
+        <f aca="false">VLOOKUP(E58,$A$66:$E$77,5)</f>
+        <v>[12](https://meet.jit.si/Forum_Branly_SG12)</v>
+      </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">VLOOKUP(E58,$A$66:$E$77,3)</f>
+        <v>B104</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" s="0" t="str">
+        <f aca="false">VLOOKUP(E59,$A$66:$E$77,5)</f>
+        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+      </c>
+      <c r="G59" s="0" t="str">
+        <f aca="false">VLOOKUP(E59,$A$66:$E$77,3)</f>
+        <v>B114</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" s="0" t="str">
+        <f aca="false">VLOOKUP(E60,$A$66:$E$77,5)</f>
+        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+      </c>
+      <c r="G60" s="0" t="str">
+        <f aca="false">VLOOKUP(E60,$A$66:$E$77,3)</f>
+        <v>B118</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F61" s="0" t="str">
+        <f aca="false">VLOOKUP(E61,$A$66:$E$77,5)</f>
+        <v>[12](https://meet.jit.si/Forum_Branly_SG12)</v>
+      </c>
+      <c r="G61" s="0" t="str">
+        <f aca="false">VLOOKUP(E61,$A$66:$E$77,3)</f>
+        <v>B104</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=1")</f>
+        <v>4</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=2")</f>
+        <v>8</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=3")</f>
+        <v>4</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=4")</f>
+        <v>7</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=5")</f>
+        <v>7</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=6")</f>
+        <v>4</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=7")</f>
+        <v>4</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=8")</f>
+        <v>4</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=9")</f>
+        <v>4</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=10")</f>
+        <v>7</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=11")</f>
+        <v>2</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <f aca="false">COUNTIF(E$2:E$61,"=12")</f>
+        <v>5</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E67" r:id="rId1" display="https://meet.jit.si/Forum_Branly_SG2"/>
+    <hyperlink ref="E75" r:id="rId2" display="https://meet.jit.si/Forum_Branly_SG10"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F61"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J39" activeCellId="0" sqref="J39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="21.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="28.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="67.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="43.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="37.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="5.39"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Organisation+Recensement.xlsx
+++ b/Organisation+Recensement.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Resume" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,8 @@
     <sheet name="Répartition" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Répartition_Rémi" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="RépartitionTraité" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Feuille9" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Avec Nom" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Sans Nom" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">ATS!$A$1:$I$41</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="357">
   <si>
     <t xml:space="preserve">ATS</t>
   </si>
@@ -1024,40 +1025,43 @@
     <t xml:space="preserve">Salle</t>
   </si>
   <si>
-    <t xml:space="preserve">[1](https://meet.jit.si/Forum_Branly_SG1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2](https://meet.jit.si/Forum_Branly_SG2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3](https://meet.jit.si/Forum_Branly_SG3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[4](https://meet.jit.si/Forum_Branly_SG4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[5](https://meet.jit.si/Forum_Branly_SG5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[6](https://meet.jit.si/Forum_Branly_SG6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[7](https://meet.jit.si/Forum_Branly_SG7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[8](https://meet.jit.si/Forum_Branly_SG8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[9](https://meet.jit.si/Forum_Branly_SG9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10](https://meet.jit.si/Forum_Branly_SG10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11](https://meet.jit.si/Forum_Branly_SG11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[12](https://meet.jit.si/Forum_Branly_SG12)</t>
+    <t xml:space="preserve">[Salon 01](https://meet.jit.si/ForumBranlyGR1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 02](https://meet.jit.si/ForumBranlyGR2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 03](https://meet.jit.si/ForumBranlyGR3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 04](https://meet.jit.si/ForumBranlyGR4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 05](https://meet.jit.si/ForumBranlyGR5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 06](https://meet.jit.si/ForumBranlyGR6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 07](https://meet.jit.si/ForumBranlyGR7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 08](https://meet.jit.si/ForumBranlyGR8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 09](https://meet.jit.si/ForumBranlyGR9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 10](https://meet.jit.si/ForumBranlyGR10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 11](https://meet.jit.si/ForumBranlyGR11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 12](https://meet.jit.si/ForumBranlyGR12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classe</t>
   </si>
   <si>
     <t xml:space="preserve">École </t>
@@ -1066,13 +1070,13 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
-    <t xml:space="preserve">[Salon 1](https://meet.jit.si/Forum_Branly_SG1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Salon 3](https://meet.jit.si/Forum_Branly_SG3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Salon 2](https://meet.jit.si/Forum_Branly_SG2)</t>
+    <t xml:space="preserve">[Salon 01](https://meet.jit.si/Forum_Branly_SG1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 03](https://meet.jit.si/Forum_Branly_SG3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 02](https://meet.jit.si/Forum_Branly_SG2)</t>
   </si>
   <si>
     <t xml:space="preserve">[Salon 10](https://meet.jit.si/Forum_Branly_SG10)</t>
@@ -1081,22 +1085,22 @@
     <t xml:space="preserve">[Salon 12](https://meet.jit.si/Forum_Branly_SG12)</t>
   </si>
   <si>
-    <t xml:space="preserve">[Salon 5](https://meet.jit.si/Forum_Branly_SG5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Salon 4](https://meet.jit.si/Forum_Branly_SG4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Salon 8](https://meet.jit.si/Forum_Branly_SG8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Salon 9](https://meet.jit.si/Forum_Branly_SG9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Salon 7](https://meet.jit.si/Forum_Branly_SG7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Salon 6](https://meet.jit.si/Forum_Branly_SG6)</t>
+    <t xml:space="preserve">[Salon 05](https://meet.jit.si/Forum_Branly_SG5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 04](https://meet.jit.si/Forum_Branly_SG4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 08](https://meet.jit.si/Forum_Branly_SG8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 09](https://meet.jit.si/Forum_Branly_SG9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 07](https://meet.jit.si/Forum_Branly_SG7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 06](https://meet.jit.si/Forum_Branly_SG6)</t>
   </si>
   <si>
     <t xml:space="preserve">[Salon 11](https://meet.jit.si/Forum_Branly_SG11)</t>
@@ -1242,7 +1246,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1268,10 +1272,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1301,10 +1301,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1412,10 +1408,10 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="1" sqref="C51 F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.29"/>
@@ -1709,6 +1705,1074 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="41.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="25.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="44.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1717,10 +2781,10 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="C51 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.43"/>
@@ -2895,10 +3959,10 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="1" sqref="C51 A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.57"/>
@@ -3265,16 +4329,16 @@
       <c r="C20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="3" t="s">
         <v>199</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
@@ -3286,16 +4350,16 @@
       <c r="C21" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
@@ -3307,16 +4371,16 @@
       <c r="C22" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="3" t="s">
         <v>207</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
@@ -3328,16 +4392,16 @@
       <c r="C23" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
@@ -3349,16 +4413,16 @@
       <c r="C24" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="3" t="s">
         <v>211</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
@@ -3370,37 +4434,37 @@
       <c r="C25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>239</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:D19"/>
@@ -3426,10 +4490,10 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="C51 E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="n">
@@ -3525,10 +4589,10 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="C51 B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -3611,13 +4675,13 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="C51 C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="25.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,7 +4697,7 @@
       <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>267</v>
       </c>
     </row>
@@ -3650,7 +4714,7 @@
       <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,7 +4731,7 @@
       <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,7 +4748,7 @@
       <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3701,7 +4765,7 @@
       <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3718,7 +4782,7 @@
       <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3735,7 +4799,7 @@
       <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3752,7 +4816,7 @@
       <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3769,7 +4833,7 @@
       <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3786,7 +4850,7 @@
       <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3803,7 +4867,7 @@
       <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,7 +4884,7 @@
       <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3837,7 +4901,7 @@
       <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,7 +4918,7 @@
       <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3871,7 +4935,7 @@
       <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3888,7 +4952,7 @@
       <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3905,7 +4969,7 @@
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3922,7 +4986,7 @@
       <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3939,7 +5003,7 @@
       <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="14" t="n">
+      <c r="E19" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3956,7 +5020,7 @@
       <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="14" t="n">
+      <c r="E20" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3973,7 +5037,7 @@
       <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3990,7 +5054,7 @@
       <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="14" t="n">
+      <c r="E22" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4007,7 +5071,7 @@
       <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="14" t="n">
+      <c r="E23" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4024,7 +5088,7 @@
       <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4041,7 +5105,7 @@
       <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="14" t="n">
+      <c r="E25" s="13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4058,7 +5122,7 @@
       <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="14" t="n">
+      <c r="E26" s="13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4075,7 +5139,7 @@
       <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="14" t="n">
+      <c r="E27" s="13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4092,7 +5156,7 @@
       <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="14" t="n">
+      <c r="E28" s="13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4109,7 +5173,7 @@
       <c r="D29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="14" t="n">
+      <c r="E29" s="13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4126,7 +5190,7 @@
       <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="14" t="n">
+      <c r="E30" s="13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4143,7 +5207,7 @@
       <c r="D31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="14" t="n">
+      <c r="E31" s="13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4160,7 +5224,7 @@
       <c r="D32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="14" t="n">
+      <c r="E32" s="13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4177,7 +5241,7 @@
       <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="14" t="n">
+      <c r="E33" s="13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4194,7 +5258,7 @@
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="14" t="n">
+      <c r="E34" s="13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4211,7 +5275,7 @@
       <c r="D35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="14" t="n">
+      <c r="E35" s="13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4228,7 +5292,7 @@
       <c r="D36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="14" t="n">
+      <c r="E36" s="13" t="n">
         <v>4</v>
       </c>
       <c r="F36" s="3"/>
@@ -4246,7 +5310,7 @@
       <c r="D37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="14" t="n">
+      <c r="E37" s="13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4263,7 +5327,7 @@
       <c r="D38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="14" t="n">
+      <c r="E38" s="13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4280,7 +5344,7 @@
       <c r="D39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="14" t="n">
+      <c r="E39" s="13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4297,7 +5361,7 @@
       <c r="D40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="14" t="n">
+      <c r="E40" s="13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4314,7 +5378,7 @@
       <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="14" t="n">
+      <c r="E41" s="13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4331,7 +5395,7 @@
       <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="14" t="n">
+      <c r="E42" s="13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4345,7 +5409,7 @@
       <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="14" t="n">
+      <c r="E43" s="13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4362,7 +5426,7 @@
       <c r="D44" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="14" t="n">
+      <c r="E44" s="13" t="n">
         <v>6</v>
       </c>
       <c r="F44" s="3"/>
@@ -4377,7 +5441,7 @@
       <c r="C45" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E45" s="14" t="n">
+      <c r="E45" s="13" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="3"/>
@@ -4395,7 +5459,7 @@
       <c r="D46" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="14" t="n">
+      <c r="E46" s="13" t="n">
         <v>6</v>
       </c>
       <c r="F46" s="3"/>
@@ -4413,7 +5477,7 @@
       <c r="D47" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="14" t="n">
+      <c r="E47" s="13" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="3"/>
@@ -4428,7 +5492,7 @@
       <c r="C48" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="14" t="n">
+      <c r="E48" s="13" t="n">
         <v>6</v>
       </c>
       <c r="F48" s="3"/>
@@ -4443,7 +5507,7 @@
       <c r="C49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="14" t="n">
+      <c r="E49" s="13" t="n">
         <v>6</v>
       </c>
       <c r="F49" s="3"/>
@@ -4461,7 +5525,7 @@
       <c r="D50" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="14" t="n">
+      <c r="E50" s="13" t="n">
         <v>6</v>
       </c>
       <c r="F50" s="3"/>
@@ -4485,13 +5549,13 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E77" activeCellId="0" sqref="E77"/>
+      <selection pane="topLeft" activeCell="E77" activeCellId="1" sqref="C51 E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="25.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,7 +5571,7 @@
       <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4524,7 +5588,7 @@
       <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4541,7 +5605,7 @@
       <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4558,7 +5622,7 @@
       <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4575,7 +5639,7 @@
       <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4592,7 +5656,7 @@
       <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4609,7 +5673,7 @@
       <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,7 +5690,7 @@
       <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4643,7 +5707,7 @@
       <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4660,7 +5724,7 @@
       <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4677,7 +5741,7 @@
       <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4694,7 +5758,7 @@
       <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4711,7 +5775,7 @@
       <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4728,7 +5792,7 @@
       <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4745,7 +5809,7 @@
       <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,7 +5826,7 @@
       <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4779,7 +5843,7 @@
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4796,7 +5860,7 @@
       <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4813,7 +5877,7 @@
       <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="14" t="n">
+      <c r="E19" s="13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4830,7 +5894,7 @@
       <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="14" t="n">
+      <c r="E20" s="13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4847,7 +5911,7 @@
       <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4864,7 +5928,7 @@
       <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="14" t="n">
+      <c r="E22" s="13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4881,7 +5945,7 @@
       <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="14" t="n">
+      <c r="E23" s="13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4898,7 +5962,7 @@
       <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -4915,7 +5979,7 @@
       <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="14" t="n">
+      <c r="E25" s="13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4932,7 +5996,7 @@
       <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="14" t="n">
+      <c r="E26" s="13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4949,7 +6013,7 @@
       <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="14" t="n">
+      <c r="E27" s="13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4966,7 +6030,7 @@
       <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="14" t="n">
+      <c r="E28" s="13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4983,7 +6047,7 @@
       <c r="D29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="14" t="n">
+      <c r="E29" s="13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5000,7 +6064,7 @@
       <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="14" t="n">
+      <c r="E30" s="13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5017,7 +6081,7 @@
       <c r="D31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="14" t="n">
+      <c r="E31" s="13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5034,7 +6098,7 @@
       <c r="D32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="14" t="n">
+      <c r="E32" s="13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5051,7 +6115,7 @@
       <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="14" t="n">
+      <c r="E33" s="13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -5068,7 +6132,7 @@
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="14" t="n">
+      <c r="E34" s="13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -5085,7 +6149,7 @@
       <c r="D35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="14" t="n">
+      <c r="E35" s="13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -5102,7 +6166,7 @@
       <c r="D36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="14" t="n">
+      <c r="E36" s="13" t="n">
         <v>7</v>
       </c>
       <c r="F36" s="3"/>
@@ -5120,7 +6184,7 @@
       <c r="D37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="14" t="n">
+      <c r="E37" s="13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5137,7 +6201,7 @@
       <c r="D38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="14" t="n">
+      <c r="E38" s="13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5154,7 +6218,7 @@
       <c r="D39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="14" t="n">
+      <c r="E39" s="13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5171,7 +6235,7 @@
       <c r="D40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="14" t="n">
+      <c r="E40" s="13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5188,7 +6252,7 @@
       <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="14" t="n">
+      <c r="E41" s="13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5205,7 +6269,7 @@
       <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="14" t="n">
+      <c r="E42" s="13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5219,7 +6283,7 @@
       <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="14" t="n">
+      <c r="E43" s="13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -5236,7 +6300,7 @@
       <c r="D44" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="14" t="n">
+      <c r="E44" s="13" t="n">
         <v>5</v>
       </c>
       <c r="F44" s="3"/>
@@ -5254,7 +6318,7 @@
       <c r="D45" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="14" t="n">
+      <c r="E45" s="13" t="n">
         <v>9</v>
       </c>
       <c r="F45" s="3"/>
@@ -5272,7 +6336,7 @@
       <c r="D46" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="14" t="n">
+      <c r="E46" s="13" t="n">
         <v>11</v>
       </c>
       <c r="F46" s="3"/>
@@ -5290,7 +6354,7 @@
       <c r="D47" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="14" t="n">
+      <c r="E47" s="13" t="n">
         <v>3</v>
       </c>
       <c r="F47" s="3"/>
@@ -5308,7 +6372,7 @@
       <c r="D48" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="14" t="n">
+      <c r="E48" s="13" t="n">
         <v>6</v>
       </c>
       <c r="F48" s="3"/>
@@ -5326,7 +6390,7 @@
       <c r="D49" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="14" t="n">
+      <c r="E49" s="13" t="n">
         <v>9</v>
       </c>
       <c r="F49" s="3"/>
@@ -5344,192 +6408,192 @@
       <c r="D50" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="14" t="n">
+      <c r="E50" s="13" t="n">
         <v>12</v>
       </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E51" s="14" t="n">
+      <c r="E51" s="13" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="14" t="n">
+      <c r="E52" s="13" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="14" t="n">
+      <c r="E53" s="13" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="14" t="n">
+      <c r="E54" s="13" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="6" t="s">
         <v>282</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="14" t="n">
+      <c r="E55" s="13" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="14" t="n">
+      <c r="E56" s="13" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="6" t="s">
         <v>285</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="14" t="n">
+      <c r="E57" s="13" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="6" t="s">
         <v>287</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="14" t="n">
+      <c r="E58" s="13" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="6" t="s">
         <v>199</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="14" t="n">
+      <c r="E59" s="13" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="6" t="s">
         <v>231</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="14" t="n">
+      <c r="E60" s="13" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="6" t="s">
         <v>291</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="14" t="n">
+      <c r="E61" s="13" t="n">
         <v>12</v>
       </c>
     </row>
@@ -5537,10 +6601,10 @@
       <c r="A65" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="14" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5552,10 +6616,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=1")</f>
         <v>4</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="14" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5567,10 +6631,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=2")</f>
         <v>8</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="14" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5582,10 +6646,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=3")</f>
         <v>4</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="14" t="s">
         <v>301</v>
       </c>
     </row>
@@ -5597,10 +6661,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=4")</f>
         <v>7</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="14" t="s">
         <v>304</v>
       </c>
     </row>
@@ -5612,10 +6676,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=5")</f>
         <v>7</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="14" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5627,10 +6691,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=6")</f>
         <v>4</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="14" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5642,10 +6706,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=7")</f>
         <v>4</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="14" t="s">
         <v>313</v>
       </c>
     </row>
@@ -5657,10 +6721,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=8")</f>
         <v>4</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="14" t="s">
         <v>316</v>
       </c>
     </row>
@@ -5672,10 +6736,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=9")</f>
         <v>4</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="14" t="s">
         <v>319</v>
       </c>
     </row>
@@ -5687,10 +6751,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=10")</f>
         <v>7</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="14" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5702,10 +6766,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=11")</f>
         <v>2</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="14" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5717,10 +6781,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=12")</f>
         <v>5</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="14" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5742,17 +6806,17 @@
   </sheetPr>
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D52" activeCellId="1" sqref="C51 D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="39.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="39.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="44.16"/>
   </cols>
   <sheetData>
@@ -5769,7 +6833,7 @@
       <c r="D1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>267</v>
       </c>
       <c r="F1" s="0" t="s">
@@ -5787,17 +6851,17 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="0" t="str">
         <f aca="false">VLOOKUP(E2,$A$66:$E$77,5)</f>
-        <v>[1](https://meet.jit.si/Forum_Branly_SG1)</v>
+        <v>[Salon 01](https://meet.jit.si/ForumBranlyGR1)</v>
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">VLOOKUP(E2,$A$66:$E$77,3)</f>
@@ -5817,12 +6881,12 @@
       <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="13" t="n">
         <v>3</v>
       </c>
       <c r="F3" s="0" t="str">
         <f aca="false">VLOOKUP(E3,$A$66:$E$77,5)</f>
-        <v>[3](https://meet.jit.si/Forum_Branly_SG3)</v>
+        <v>[Salon 03](https://meet.jit.si/ForumBranlyGR3)</v>
       </c>
       <c r="G3" s="0" t="str">
         <f aca="false">VLOOKUP(E3,$A$66:$E$77,3)</f>
@@ -5842,12 +6906,12 @@
       <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="13" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="0" t="str">
         <f aca="false">VLOOKUP(E4,$A$66:$E$77,5)</f>
-        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">VLOOKUP(E4,$A$66:$E$77,3)</f>
@@ -5867,12 +6931,12 @@
       <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="13" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="0" t="str">
         <f aca="false">VLOOKUP(E5,$A$66:$E$77,5)</f>
-        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
       </c>
       <c r="G5" s="0" t="str">
         <f aca="false">VLOOKUP(E5,$A$66:$E$77,3)</f>
@@ -5892,12 +6956,12 @@
       <c r="D6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="13" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="0" t="str">
         <f aca="false">VLOOKUP(E6,$A$66:$E$77,5)</f>
-        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
       </c>
       <c r="G6" s="0" t="str">
         <f aca="false">VLOOKUP(E6,$A$66:$E$77,3)</f>
@@ -5917,12 +6981,12 @@
       <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="0" t="str">
         <f aca="false">VLOOKUP(E7,$A$66:$E$77,5)</f>
-        <v>[1](https://meet.jit.si/Forum_Branly_SG1)</v>
+        <v>[Salon 01](https://meet.jit.si/ForumBranlyGR1)</v>
       </c>
       <c r="G7" s="0" t="str">
         <f aca="false">VLOOKUP(E7,$A$66:$E$77,3)</f>
@@ -5942,12 +7006,12 @@
       <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="13" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="0" t="str">
         <f aca="false">VLOOKUP(E8,$A$66:$E$77,5)</f>
-        <v>[3](https://meet.jit.si/Forum_Branly_SG3)</v>
+        <v>[Salon 03](https://meet.jit.si/ForumBranlyGR3)</v>
       </c>
       <c r="G8" s="0" t="str">
         <f aca="false">VLOOKUP(E8,$A$66:$E$77,3)</f>
@@ -5967,12 +7031,12 @@
       <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="13" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="0" t="str">
         <f aca="false">VLOOKUP(E9,$A$66:$E$77,5)</f>
-        <v>[3](https://meet.jit.si/Forum_Branly_SG3)</v>
+        <v>[Salon 03](https://meet.jit.si/ForumBranlyGR3)</v>
       </c>
       <c r="G9" s="0" t="str">
         <f aca="false">VLOOKUP(E9,$A$66:$E$77,3)</f>
@@ -5992,12 +7056,12 @@
       <c r="D10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="13" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="0" t="str">
         <f aca="false">VLOOKUP(E10,$A$66:$E$77,5)</f>
-        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
       </c>
       <c r="G10" s="0" t="str">
         <f aca="false">VLOOKUP(E10,$A$66:$E$77,3)</f>
@@ -6017,12 +7081,12 @@
       <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="13" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="0" t="str">
         <f aca="false">VLOOKUP(E11,$A$66:$E$77,5)</f>
-        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
       </c>
       <c r="G11" s="0" t="str">
         <f aca="false">VLOOKUP(E11,$A$66:$E$77,3)</f>
@@ -6042,12 +7106,12 @@
       <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="13" t="n">
         <v>2</v>
       </c>
       <c r="F12" s="0" t="str">
         <f aca="false">VLOOKUP(E12,$A$66:$E$77,5)</f>
-        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
       </c>
       <c r="G12" s="0" t="str">
         <f aca="false">VLOOKUP(E12,$A$66:$E$77,3)</f>
@@ -6067,12 +7131,12 @@
       <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="13" t="n">
         <v>2</v>
       </c>
       <c r="F13" s="0" t="str">
         <f aca="false">VLOOKUP(E13,$A$66:$E$77,5)</f>
-        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
       </c>
       <c r="G13" s="0" t="str">
         <f aca="false">VLOOKUP(E13,$A$66:$E$77,3)</f>
@@ -6092,12 +7156,12 @@
       <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="0" t="str">
         <f aca="false">VLOOKUP(E14,$A$66:$E$77,5)</f>
-        <v>[1](https://meet.jit.si/Forum_Branly_SG1)</v>
+        <v>[Salon 01](https://meet.jit.si/ForumBranlyGR1)</v>
       </c>
       <c r="G14" s="0" t="str">
         <f aca="false">VLOOKUP(E14,$A$66:$E$77,3)</f>
@@ -6117,12 +7181,12 @@
       <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="0" t="str">
         <f aca="false">VLOOKUP(E15,$A$66:$E$77,5)</f>
-        <v>[1](https://meet.jit.si/Forum_Branly_SG1)</v>
+        <v>[Salon 01](https://meet.jit.si/ForumBranlyGR1)</v>
       </c>
       <c r="G15" s="0" t="str">
         <f aca="false">VLOOKUP(E15,$A$66:$E$77,3)</f>
@@ -6142,12 +7206,12 @@
       <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="13" t="n">
         <v>2</v>
       </c>
       <c r="F16" s="0" t="str">
         <f aca="false">VLOOKUP(E16,$A$66:$E$77,5)</f>
-        <v>[2](https://meet.jit.si/Forum_Branly_SG2)</v>
+        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
       </c>
       <c r="G16" s="0" t="str">
         <f aca="false">VLOOKUP(E16,$A$66:$E$77,3)</f>
@@ -6167,12 +7231,12 @@
       <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="13" t="n">
         <v>10</v>
       </c>
       <c r="F17" s="0" t="str">
         <f aca="false">VLOOKUP(E17,$A$66:$E$77,5)</f>
-        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G17" s="0" t="str">
         <f aca="false">VLOOKUP(E17,$A$66:$E$77,3)</f>
@@ -6192,12 +7256,12 @@
       <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="13" t="n">
         <v>10</v>
       </c>
       <c r="F18" s="0" t="str">
         <f aca="false">VLOOKUP(E18,$A$66:$E$77,5)</f>
-        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G18" s="0" t="str">
         <f aca="false">VLOOKUP(E18,$A$66:$E$77,3)</f>
@@ -6217,12 +7281,12 @@
       <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="14" t="n">
+      <c r="E19" s="13" t="n">
         <v>10</v>
       </c>
       <c r="F19" s="0" t="str">
         <f aca="false">VLOOKUP(E19,$A$66:$E$77,5)</f>
-        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G19" s="0" t="str">
         <f aca="false">VLOOKUP(E19,$A$66:$E$77,3)</f>
@@ -6242,12 +7306,12 @@
       <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="14" t="n">
+      <c r="E20" s="13" t="n">
         <v>10</v>
       </c>
       <c r="F20" s="0" t="str">
         <f aca="false">VLOOKUP(E20,$A$66:$E$77,5)</f>
-        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G20" s="0" t="str">
         <f aca="false">VLOOKUP(E20,$A$66:$E$77,3)</f>
@@ -6267,12 +7331,12 @@
       <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="14" t="n">
+      <c r="E21" s="13" t="n">
         <v>10</v>
       </c>
       <c r="F21" s="0" t="str">
         <f aca="false">VLOOKUP(E21,$A$66:$E$77,5)</f>
-        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G21" s="0" t="str">
         <f aca="false">VLOOKUP(E21,$A$66:$E$77,3)</f>
@@ -6292,12 +7356,12 @@
       <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="14" t="n">
+      <c r="E22" s="13" t="n">
         <v>10</v>
       </c>
       <c r="F22" s="0" t="str">
         <f aca="false">VLOOKUP(E22,$A$66:$E$77,5)</f>
-        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G22" s="0" t="str">
         <f aca="false">VLOOKUP(E22,$A$66:$E$77,3)</f>
@@ -6317,12 +7381,12 @@
       <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="14" t="n">
+      <c r="E23" s="13" t="n">
         <v>10</v>
       </c>
       <c r="F23" s="0" t="str">
         <f aca="false">VLOOKUP(E23,$A$66:$E$77,5)</f>
-        <v>[10](https://meet.jit.si/Forum_Branly_SG10)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G23" s="0" t="str">
         <f aca="false">VLOOKUP(E23,$A$66:$E$77,3)</f>
@@ -6342,12 +7406,12 @@
       <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="13" t="n">
         <v>12</v>
       </c>
       <c r="F24" s="0" t="str">
         <f aca="false">VLOOKUP(E24,$A$66:$E$77,5)</f>
-        <v>[12](https://meet.jit.si/Forum_Branly_SG12)</v>
+        <v>[Salon 12](https://meet.jit.si/ForumBranlyGR12)</v>
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">VLOOKUP(E24,$A$66:$E$77,3)</f>
@@ -6367,12 +7431,12 @@
       <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="14" t="n">
+      <c r="E25" s="13" t="n">
         <v>5</v>
       </c>
       <c r="F25" s="0" t="str">
         <f aca="false">VLOOKUP(E25,$A$66:$E$77,5)</f>
-        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G25" s="0" t="str">
         <f aca="false">VLOOKUP(E25,$A$66:$E$77,3)</f>
@@ -6392,12 +7456,12 @@
       <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="14" t="n">
+      <c r="E26" s="13" t="n">
         <v>4</v>
       </c>
       <c r="F26" s="0" t="str">
         <f aca="false">VLOOKUP(E26,$A$66:$E$77,5)</f>
-        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G26" s="0" t="str">
         <f aca="false">VLOOKUP(E26,$A$66:$E$77,3)</f>
@@ -6417,12 +7481,12 @@
       <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="14" t="n">
+      <c r="E27" s="13" t="n">
         <v>4</v>
       </c>
       <c r="F27" s="0" t="str">
         <f aca="false">VLOOKUP(E27,$A$66:$E$77,5)</f>
-        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G27" s="0" t="str">
         <f aca="false">VLOOKUP(E27,$A$66:$E$77,3)</f>
@@ -6442,12 +7506,12 @@
       <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="14" t="n">
+      <c r="E28" s="13" t="n">
         <v>4</v>
       </c>
       <c r="F28" s="0" t="str">
         <f aca="false">VLOOKUP(E28,$A$66:$E$77,5)</f>
-        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G28" s="0" t="str">
         <f aca="false">VLOOKUP(E28,$A$66:$E$77,3)</f>
@@ -6467,12 +7531,12 @@
       <c r="D29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="14" t="n">
+      <c r="E29" s="13" t="n">
         <v>4</v>
       </c>
       <c r="F29" s="0" t="str">
         <f aca="false">VLOOKUP(E29,$A$66:$E$77,5)</f>
-        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G29" s="0" t="str">
         <f aca="false">VLOOKUP(E29,$A$66:$E$77,3)</f>
@@ -6492,12 +7556,12 @@
       <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="14" t="n">
+      <c r="E30" s="13" t="n">
         <v>4</v>
       </c>
       <c r="F30" s="0" t="str">
         <f aca="false">VLOOKUP(E30,$A$66:$E$77,5)</f>
-        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">VLOOKUP(E30,$A$66:$E$77,3)</f>
@@ -6517,12 +7581,12 @@
       <c r="D31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="14" t="n">
+      <c r="E31" s="13" t="n">
         <v>4</v>
       </c>
       <c r="F31" s="0" t="str">
         <f aca="false">VLOOKUP(E31,$A$66:$E$77,5)</f>
-        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">VLOOKUP(E31,$A$66:$E$77,3)</f>
@@ -6542,12 +7606,12 @@
       <c r="D32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="14" t="n">
+      <c r="E32" s="13" t="n">
         <v>8</v>
       </c>
       <c r="F32" s="0" t="str">
         <f aca="false">VLOOKUP(E32,$A$66:$E$77,5)</f>
-        <v>[8](https://meet.jit.si/Forum_Branly_SG8)</v>
+        <v>[Salon 08](https://meet.jit.si/ForumBranlyGR8)</v>
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">VLOOKUP(E32,$A$66:$E$77,3)</f>
@@ -6567,12 +7631,12 @@
       <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="14" t="n">
+      <c r="E33" s="13" t="n">
         <v>9</v>
       </c>
       <c r="F33" s="0" t="str">
         <f aca="false">VLOOKUP(E33,$A$66:$E$77,5)</f>
-        <v>[9](https://meet.jit.si/Forum_Branly_SG9)</v>
+        <v>[Salon 09](https://meet.jit.si/ForumBranlyGR9)</v>
       </c>
       <c r="G33" s="0" t="str">
         <f aca="false">VLOOKUP(E33,$A$66:$E$77,3)</f>
@@ -6592,12 +7656,12 @@
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="14" t="n">
+      <c r="E34" s="13" t="n">
         <v>8</v>
       </c>
       <c r="F34" s="0" t="str">
         <f aca="false">VLOOKUP(E34,$A$66:$E$77,5)</f>
-        <v>[8](https://meet.jit.si/Forum_Branly_SG8)</v>
+        <v>[Salon 08](https://meet.jit.si/ForumBranlyGR8)</v>
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">VLOOKUP(E34,$A$66:$E$77,3)</f>
@@ -6617,12 +7681,12 @@
       <c r="D35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="14" t="n">
+      <c r="E35" s="13" t="n">
         <v>7</v>
       </c>
       <c r="F35" s="0" t="str">
         <f aca="false">VLOOKUP(E35,$A$66:$E$77,5)</f>
-        <v>[7](https://meet.jit.si/Forum_Branly_SG7)</v>
+        <v>[Salon 07](https://meet.jit.si/ForumBranlyGR7)</v>
       </c>
       <c r="G35" s="0" t="str">
         <f aca="false">VLOOKUP(E35,$A$66:$E$77,3)</f>
@@ -6642,12 +7706,12 @@
       <c r="D36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="14" t="n">
+      <c r="E36" s="13" t="n">
         <v>7</v>
       </c>
       <c r="F36" s="0" t="str">
         <f aca="false">VLOOKUP(E36,$A$66:$E$77,5)</f>
-        <v>[7](https://meet.jit.si/Forum_Branly_SG7)</v>
+        <v>[Salon 07](https://meet.jit.si/ForumBranlyGR7)</v>
       </c>
       <c r="G36" s="0" t="str">
         <f aca="false">VLOOKUP(E36,$A$66:$E$77,3)</f>
@@ -6667,12 +7731,12 @@
       <c r="D37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="14" t="n">
+      <c r="E37" s="13" t="n">
         <v>5</v>
       </c>
       <c r="F37" s="0" t="str">
         <f aca="false">VLOOKUP(E37,$A$66:$E$77,5)</f>
-        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G37" s="0" t="str">
         <f aca="false">VLOOKUP(E37,$A$66:$E$77,3)</f>
@@ -6692,12 +7756,12 @@
       <c r="D38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="14" t="n">
+      <c r="E38" s="13" t="n">
         <v>5</v>
       </c>
       <c r="F38" s="0" t="str">
         <f aca="false">VLOOKUP(E38,$A$66:$E$77,5)</f>
-        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">VLOOKUP(E38,$A$66:$E$77,3)</f>
@@ -6717,12 +7781,12 @@
       <c r="D39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="14" t="n">
+      <c r="E39" s="13" t="n">
         <v>5</v>
       </c>
       <c r="F39" s="0" t="str">
         <f aca="false">VLOOKUP(E39,$A$66:$E$77,5)</f>
-        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">VLOOKUP(E39,$A$66:$E$77,3)</f>
@@ -6742,12 +7806,12 @@
       <c r="D40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="14" t="n">
+      <c r="E40" s="13" t="n">
         <v>5</v>
       </c>
       <c r="F40" s="0" t="str">
         <f aca="false">VLOOKUP(E40,$A$66:$E$77,5)</f>
-        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">VLOOKUP(E40,$A$66:$E$77,3)</f>
@@ -6767,12 +7831,12 @@
       <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="14" t="n">
+      <c r="E41" s="13" t="n">
         <v>6</v>
       </c>
       <c r="F41" s="0" t="str">
         <f aca="false">VLOOKUP(E41,$A$66:$E$77,5)</f>
-        <v>[6](https://meet.jit.si/Forum_Branly_SG6)</v>
+        <v>[Salon 06](https://meet.jit.si/ForumBranlyGR6)</v>
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">VLOOKUP(E41,$A$66:$E$77,3)</f>
@@ -6792,12 +7856,12 @@
       <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="14" t="n">
+      <c r="E42" s="13" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="0" t="str">
         <f aca="false">VLOOKUP(E42,$A$66:$E$77,5)</f>
-        <v>[6](https://meet.jit.si/Forum_Branly_SG6)</v>
+        <v>[Salon 06](https://meet.jit.si/ForumBranlyGR6)</v>
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">VLOOKUP(E42,$A$66:$E$77,3)</f>
@@ -6814,12 +7878,15 @@
       <c r="C43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="14" t="n">
+      <c r="D43" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="13" t="n">
         <v>6</v>
       </c>
       <c r="F43" s="0" t="str">
         <f aca="false">VLOOKUP(E43,$A$66:$E$77,5)</f>
-        <v>[6](https://meet.jit.si/Forum_Branly_SG6)</v>
+        <v>[Salon 06](https://meet.jit.si/ForumBranlyGR6)</v>
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">VLOOKUP(E43,$A$66:$E$77,3)</f>
@@ -6839,12 +7906,12 @@
       <c r="D44" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="14" t="n">
+      <c r="E44" s="13" t="n">
         <v>5</v>
       </c>
       <c r="F44" s="0" t="str">
         <f aca="false">VLOOKUP(E44,$A$66:$E$77,5)</f>
-        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">VLOOKUP(E44,$A$66:$E$77,3)</f>
@@ -6864,12 +7931,12 @@
       <c r="D45" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="14" t="n">
+      <c r="E45" s="13" t="n">
         <v>9</v>
       </c>
       <c r="F45" s="0" t="str">
         <f aca="false">VLOOKUP(E45,$A$66:$E$77,5)</f>
-        <v>[9](https://meet.jit.si/Forum_Branly_SG9)</v>
+        <v>[Salon 09](https://meet.jit.si/ForumBranlyGR9)</v>
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">VLOOKUP(E45,$A$66:$E$77,3)</f>
@@ -6889,12 +7956,12 @@
       <c r="D46" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="14" t="n">
+      <c r="E46" s="13" t="n">
         <v>11</v>
       </c>
       <c r="F46" s="0" t="str">
         <f aca="false">VLOOKUP(E46,$A$66:$E$77,5)</f>
-        <v>[11](https://meet.jit.si/Forum_Branly_SG11)</v>
+        <v>[Salon 11](https://meet.jit.si/ForumBranlyGR11)</v>
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">VLOOKUP(E46,$A$66:$E$77,3)</f>
@@ -6914,12 +7981,12 @@
       <c r="D47" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="14" t="n">
+      <c r="E47" s="13" t="n">
         <v>3</v>
       </c>
       <c r="F47" s="0" t="str">
         <f aca="false">VLOOKUP(E47,$A$66:$E$77,5)</f>
-        <v>[3](https://meet.jit.si/Forum_Branly_SG3)</v>
+        <v>[Salon 03](https://meet.jit.si/ForumBranlyGR3)</v>
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">VLOOKUP(E47,$A$66:$E$77,3)</f>
@@ -6939,12 +8006,12 @@
       <c r="D48" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="14" t="n">
+      <c r="E48" s="13" t="n">
         <v>6</v>
       </c>
       <c r="F48" s="0" t="str">
         <f aca="false">VLOOKUP(E48,$A$66:$E$77,5)</f>
-        <v>[6](https://meet.jit.si/Forum_Branly_SG6)</v>
+        <v>[Salon 06](https://meet.jit.si/ForumBranlyGR6)</v>
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">VLOOKUP(E48,$A$66:$E$77,3)</f>
@@ -6964,12 +8031,12 @@
       <c r="D49" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="14" t="n">
+      <c r="E49" s="13" t="n">
         <v>9</v>
       </c>
       <c r="F49" s="0" t="str">
         <f aca="false">VLOOKUP(E49,$A$66:$E$77,5)</f>
-        <v>[9](https://meet.jit.si/Forum_Branly_SG9)</v>
+        <v>[Salon 09](https://meet.jit.si/ForumBranlyGR9)</v>
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">VLOOKUP(E49,$A$66:$E$77,3)</f>
@@ -6989,12 +8056,12 @@
       <c r="D50" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="14" t="n">
+      <c r="E50" s="13" t="n">
         <v>12</v>
       </c>
       <c r="F50" s="0" t="str">
         <f aca="false">VLOOKUP(E50,$A$66:$E$77,5)</f>
-        <v>[12](https://meet.jit.si/Forum_Branly_SG12)</v>
+        <v>[Salon 12](https://meet.jit.si/ForumBranlyGR12)</v>
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">VLOOKUP(E50,$A$66:$E$77,3)</f>
@@ -7002,21 +8069,24 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E51" s="14" t="n">
+      <c r="D51" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="13" t="n">
         <v>12</v>
       </c>
       <c r="F51" s="0" t="str">
         <f aca="false">VLOOKUP(E51,$A$66:$E$77,5)</f>
-        <v>[12](https://meet.jit.si/Forum_Branly_SG12)</v>
+        <v>[Salon 12](https://meet.jit.si/ForumBranlyGR12)</v>
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">VLOOKUP(E51,$A$66:$E$77,3)</f>
@@ -7024,24 +8094,24 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="14" t="n">
+      <c r="E52" s="13" t="n">
         <v>9</v>
       </c>
       <c r="F52" s="0" t="str">
         <f aca="false">VLOOKUP(E52,$A$66:$E$77,5)</f>
-        <v>[9](https://meet.jit.si/Forum_Branly_SG9)</v>
+        <v>[Salon 09](https://meet.jit.si/ForumBranlyGR9)</v>
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">VLOOKUP(E52,$A$66:$E$77,3)</f>
@@ -7049,24 +8119,24 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="14" t="n">
+      <c r="E53" s="13" t="n">
         <v>7</v>
       </c>
       <c r="F53" s="0" t="str">
         <f aca="false">VLOOKUP(E53,$A$66:$E$77,5)</f>
-        <v>[7](https://meet.jit.si/Forum_Branly_SG7)</v>
+        <v>[Salon 07](https://meet.jit.si/ForumBranlyGR7)</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">VLOOKUP(E53,$A$66:$E$77,3)</f>
@@ -7074,24 +8144,24 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="14" t="n">
+      <c r="E54" s="13" t="n">
         <v>8</v>
       </c>
       <c r="F54" s="0" t="str">
         <f aca="false">VLOOKUP(E54,$A$66:$E$77,5)</f>
-        <v>[8](https://meet.jit.si/Forum_Branly_SG8)</v>
+        <v>[Salon 08](https://meet.jit.si/ForumBranlyGR8)</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">VLOOKUP(E54,$A$66:$E$77,3)</f>
@@ -7099,24 +8169,24 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="6" t="s">
         <v>282</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="14" t="n">
+      <c r="E55" s="13" t="n">
         <v>8</v>
       </c>
       <c r="F55" s="0" t="str">
         <f aca="false">VLOOKUP(E55,$A$66:$E$77,5)</f>
-        <v>[8](https://meet.jit.si/Forum_Branly_SG8)</v>
+        <v>[Salon 08](https://meet.jit.si/ForumBranlyGR8)</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">VLOOKUP(E55,$A$66:$E$77,3)</f>
@@ -7124,24 +8194,24 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E56" s="14" t="n">
+      <c r="E56" s="13" t="n">
         <v>7</v>
       </c>
       <c r="F56" s="0" t="str">
         <f aca="false">VLOOKUP(E56,$A$66:$E$77,5)</f>
-        <v>[7](https://meet.jit.si/Forum_Branly_SG7)</v>
+        <v>[Salon 07](https://meet.jit.si/ForumBranlyGR7)</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">VLOOKUP(E56,$A$66:$E$77,3)</f>
@@ -7149,24 +8219,24 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="6" t="s">
         <v>285</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="14" t="n">
+      <c r="E57" s="13" t="n">
         <v>11</v>
       </c>
       <c r="F57" s="0" t="str">
         <f aca="false">VLOOKUP(E57,$A$66:$E$77,5)</f>
-        <v>[11](https://meet.jit.si/Forum_Branly_SG11)</v>
+        <v>[Salon 11](https://meet.jit.si/ForumBranlyGR11)</v>
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">VLOOKUP(E57,$A$66:$E$77,3)</f>
@@ -7174,24 +8244,24 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="6" t="s">
         <v>287</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="14" t="n">
+      <c r="E58" s="13" t="n">
         <v>12</v>
       </c>
       <c r="F58" s="0" t="str">
         <f aca="false">VLOOKUP(E58,$A$66:$E$77,5)</f>
-        <v>[12](https://meet.jit.si/Forum_Branly_SG12)</v>
+        <v>[Salon 12](https://meet.jit.si/ForumBranlyGR12)</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">VLOOKUP(E58,$A$66:$E$77,3)</f>
@@ -7199,24 +8269,24 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="6" t="s">
         <v>199</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E59" s="14" t="n">
+      <c r="E59" s="13" t="n">
         <v>4</v>
       </c>
       <c r="F59" s="0" t="str">
         <f aca="false">VLOOKUP(E59,$A$66:$E$77,5)</f>
-        <v>[4](https://meet.jit.si/Forum_Branly_SG4)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">VLOOKUP(E59,$A$66:$E$77,3)</f>
@@ -7224,24 +8294,24 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="6" t="s">
         <v>231</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E60" s="14" t="n">
+      <c r="E60" s="13" t="n">
         <v>5</v>
       </c>
       <c r="F60" s="0" t="str">
         <f aca="false">VLOOKUP(E60,$A$66:$E$77,5)</f>
-        <v>[5](https://meet.jit.si/Forum_Branly_SG5)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">VLOOKUP(E60,$A$66:$E$77,3)</f>
@@ -7249,24 +8319,24 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="6" t="s">
         <v>291</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="14" t="n">
+      <c r="E61" s="13" t="n">
         <v>12</v>
       </c>
       <c r="F61" s="0" t="str">
         <f aca="false">VLOOKUP(E61,$A$66:$E$77,5)</f>
-        <v>[12](https://meet.jit.si/Forum_Branly_SG12)</v>
+        <v>[Salon 12](https://meet.jit.si/ForumBranlyGR12)</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">VLOOKUP(E61,$A$66:$E$77,3)</f>
@@ -7277,10 +8347,10 @@
       <c r="A65" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="14" t="s">
         <v>294</v>
       </c>
     </row>
@@ -7292,10 +8362,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=1")</f>
         <v>4</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="14" t="s">
         <v>297</v>
       </c>
       <c r="E66" s="0" t="s">
@@ -7310,10 +8380,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=2")</f>
         <v>8</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="14" t="s">
         <v>299</v>
       </c>
       <c r="E67" s="0" t="s">
@@ -7328,10 +8398,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=3")</f>
         <v>4</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="14" t="s">
         <v>301</v>
       </c>
       <c r="E68" s="0" t="s">
@@ -7346,10 +8416,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=4")</f>
         <v>7</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="14" t="s">
         <v>304</v>
       </c>
       <c r="E69" s="0" t="s">
@@ -7364,10 +8434,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=5")</f>
         <v>7</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="14" t="s">
         <v>307</v>
       </c>
       <c r="E70" s="0" t="s">
@@ -7382,10 +8452,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=6")</f>
         <v>4</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="14" t="s">
         <v>310</v>
       </c>
       <c r="E71" s="0" t="s">
@@ -7400,10 +8470,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=7")</f>
         <v>4</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="14" t="s">
         <v>313</v>
       </c>
       <c r="E72" s="0" t="s">
@@ -7418,10 +8488,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=8")</f>
         <v>4</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="14" t="s">
         <v>316</v>
       </c>
       <c r="E73" s="0" t="s">
@@ -7436,10 +8506,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=9")</f>
         <v>4</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="14" t="s">
         <v>319</v>
       </c>
       <c r="E74" s="0" t="s">
@@ -7454,10 +8524,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=10")</f>
         <v>7</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="14" t="s">
         <v>322</v>
       </c>
       <c r="E75" s="0" t="s">
@@ -7472,10 +8542,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=11")</f>
         <v>2</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="14" t="s">
         <v>324</v>
       </c>
       <c r="E76" s="0" t="s">
@@ -7490,10 +8560,10 @@
         <f aca="false">COUNTIF(E$2:E$61,"=12")</f>
         <v>5</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="14" t="s">
         <v>327</v>
       </c>
       <c r="E77" s="0" t="s">
@@ -7501,10 +8571,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E67" r:id="rId1" display="https://meet.jit.si/Forum_Branly_SG2"/>
-    <hyperlink ref="E75" r:id="rId2" display="https://meet.jit.si/Forum_Branly_SG10"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7522,1234 +8588,1237 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J39" activeCellId="0" sqref="J39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="1" sqref="C51 D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="21.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="28.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="67.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="43.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="37.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="5.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="21.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="28.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="67.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="13" width="43.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="37.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="13" width="5.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="14" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="14" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="14" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E10" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F47" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="F24" s="14" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="14" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F51" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="14" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="F61" s="14" t="s">
+      <c r="F61" s="13" t="s">
         <v>326</v>
       </c>
     </row>

--- a/Organisation+Recensement.xlsx
+++ b/Organisation+Recensement.xlsx
@@ -18,6 +18,7 @@
     <sheet name="RépartitionTraité" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Avec Nom" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Sans Nom" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Nouvelle répartition" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">ATS!$A$1:$I$41</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="394">
   <si>
     <t xml:space="preserve">ATS</t>
   </si>
@@ -1034,12 +1035,18 @@
     <t xml:space="preserve">[Salon 03](https://meet.jit.si/ForumBranlyGR3)</t>
   </si>
   <si>
+    <t xml:space="preserve">B108</t>
+  </si>
+  <si>
     <t xml:space="preserve">[Salon 04](https://meet.jit.si/ForumBranlyGR4)</t>
   </si>
   <si>
     <t xml:space="preserve">[Salon 05](https://meet.jit.si/ForumBranlyGR5)</t>
   </si>
   <si>
+    <t xml:space="preserve">B112</t>
+  </si>
+  <si>
     <t xml:space="preserve">[Salon 06](https://meet.jit.si/ForumBranlyGR6)</t>
   </si>
   <si>
@@ -1104,6 +1111,111 @@
   </si>
   <si>
     <t xml:space="preserve">[Salon 11](https://meet.jit.si/Forum_Branly_SG11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ITII Arts et métiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Salon 01](https://meet.jit.si/ForumBranlySG1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITII INSA Lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISTP Génie Industriel (St Etienne)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITII ECAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polytech Grenoble (Electronique et Info Indus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlySG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITII CPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CESI Lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polytech Clermont-Ferrand (GE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlySG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polytech Marseille (Informatique)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polytech Nantes (Informatique)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECAM Lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlySG5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTIA Bidard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlySG6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centrale Lille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGMA Clermond Ferrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlySG7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlySG8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISAT Nevers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlySG9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telecaom SudParis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecole Centrale Nantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlySG10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecole Centrale Marseille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecole Centrale Lille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSA Lyon Elec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlySG11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSA Lyon Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecole Normale Supérieure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForumBranlySG12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSTA Paristech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Télécom Paristech</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1295,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1217,6 +1329,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1246,7 +1428,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1317,6 +1499,90 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1407,11 +1673,11 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="1" sqref="C51 F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="1" sqref="G:M F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.29"/>
@@ -1712,11 +1978,11 @@
   </sheetPr>
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="G:M"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="22.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="41.96"/>
@@ -1727,13 +1993,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>328</v>
@@ -1743,1026 +2009,1436 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>296</v>
       </c>
     </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G:M A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="40.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="F2" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="F4" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="F5" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="E3" s="13" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="F6" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="21"/>
+      <c r="F7" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="F9" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="21"/>
+      <c r="F10" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="F12" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="21"/>
+      <c r="F13" s="0" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="21"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="21"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="21"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E4" s="13" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="37"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="37"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="38"/>
+    </row>
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E25" s="13" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="37"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="38"/>
+    </row>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="21"/>
+    </row>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>306</v>
-      </c>
+      <c r="A39" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>306</v>
-      </c>
+      <c r="A40" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>326</v>
-      </c>
+      <c r="A41" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="21"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://meet.jit.si/ForumBranlySG1"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://meet.jit.si/ForumBranlySG1"/>
+    <hyperlink ref="F2" r:id="rId3" display="https://meet.jit.si/ForumBranlySG1"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2780,11 +3456,11 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="C51 G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G:M"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.43"/>
@@ -3958,11 +4634,11 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="1" sqref="C51 A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="1" sqref="G:M A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.57"/>
@@ -4489,11 +5165,11 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="C51 E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="G:M E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="n">
@@ -4588,11 +5264,11 @@
   </sheetPr>
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="C51 B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="G:M B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -4674,11 +5350,11 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="C51 C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="G:M C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="25.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="11.57"/>
@@ -5548,11 +6224,11 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E77" activeCellId="1" sqref="C51 E77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C47" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A85" activeCellId="1" sqref="G:M A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="25.72"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="11.57"/>
@@ -6806,11 +7482,11 @@
   </sheetPr>
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D52" activeCellId="1" sqref="C51 D52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="G:M B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.25"/>
@@ -6865,93 +7541,93 @@
       </c>
       <c r="G2" s="0" t="str">
         <f aca="false">VLOOKUP(E2,$A$66:$E$77,3)</f>
-        <v>B116</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>B103</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="str">
         <f aca="false">VLOOKUP(E3,$A$66:$E$77,5)</f>
-        <v>[Salon 03](https://meet.jit.si/ForumBranlyGR3)</v>
+        <v>[Salon 01](https://meet.jit.si/ForumBranlyGR1)</v>
       </c>
       <c r="G3" s="0" t="str">
         <f aca="false">VLOOKUP(E3,$A$66:$E$77,3)</f>
-        <v>B116</v>
+        <v>B103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="str">
         <f aca="false">VLOOKUP(E4,$A$66:$E$77,5)</f>
-        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
+        <v>[Salon 01](https://meet.jit.si/ForumBranlyGR1)</v>
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">VLOOKUP(E4,$A$66:$E$77,3)</f>
-        <v>B116</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>B103</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="0" t="str">
         <f aca="false">VLOOKUP(E5,$A$66:$E$77,5)</f>
-        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
+        <v>[Salon 01](https://meet.jit.si/ForumBranlyGR1)</v>
       </c>
       <c r="G5" s="0" t="str">
         <f aca="false">VLOOKUP(E5,$A$66:$E$77,3)</f>
-        <v>B116</v>
+        <v>B103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>55</v>
@@ -6965,93 +7641,93 @@
       </c>
       <c r="G6" s="0" t="str">
         <f aca="false">VLOOKUP(E6,$A$66:$E$77,3)</f>
-        <v>B116</v>
+        <v>B104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="0" t="str">
         <f aca="false">VLOOKUP(E7,$A$66:$E$77,5)</f>
-        <v>[Salon 01](https://meet.jit.si/ForumBranlyGR1)</v>
+        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
       </c>
       <c r="G7" s="0" t="str">
         <f aca="false">VLOOKUP(E7,$A$66:$E$77,3)</f>
-        <v>B116</v>
+        <v>B104</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="0" t="str">
         <f aca="false">VLOOKUP(E8,$A$66:$E$77,5)</f>
-        <v>[Salon 03](https://meet.jit.si/ForumBranlyGR3)</v>
+        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
       </c>
       <c r="G8" s="0" t="str">
         <f aca="false">VLOOKUP(E8,$A$66:$E$77,3)</f>
-        <v>B116</v>
+        <v>B104</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="0" t="str">
         <f aca="false">VLOOKUP(E9,$A$66:$E$77,5)</f>
-        <v>[Salon 03](https://meet.jit.si/ForumBranlyGR3)</v>
+        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
       </c>
       <c r="G9" s="0" t="str">
         <f aca="false">VLOOKUP(E9,$A$66:$E$77,3)</f>
-        <v>B116</v>
+        <v>B104</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>55</v>
@@ -7065,18 +7741,18 @@
       </c>
       <c r="G10" s="0" t="str">
         <f aca="false">VLOOKUP(E10,$A$66:$E$77,3)</f>
-        <v>B116</v>
+        <v>B104</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>55</v>
@@ -7090,18 +7766,18 @@
       </c>
       <c r="G11" s="0" t="str">
         <f aca="false">VLOOKUP(E11,$A$66:$E$77,3)</f>
-        <v>B116</v>
+        <v>B104</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>55</v>
@@ -7115,18 +7791,18 @@
       </c>
       <c r="G12" s="0" t="str">
         <f aca="false">VLOOKUP(E12,$A$66:$E$77,3)</f>
-        <v>B116</v>
+        <v>B104</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>55</v>
@@ -7140,103 +7816,103 @@
       </c>
       <c r="G13" s="0" t="str">
         <f aca="false">VLOOKUP(E13,$A$66:$E$77,3)</f>
-        <v>B116</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>B104</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E14" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="0" t="str">
         <f aca="false">VLOOKUP(E14,$A$66:$E$77,5)</f>
-        <v>[Salon 01](https://meet.jit.si/ForumBranlyGR1)</v>
+        <v>[Salon 03](https://meet.jit.si/ForumBranlyGR3)</v>
       </c>
       <c r="G14" s="0" t="str">
         <f aca="false">VLOOKUP(E14,$A$66:$E$77,3)</f>
-        <v>B116</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>B106</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E15" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="0" t="str">
         <f aca="false">VLOOKUP(E15,$A$66:$E$77,5)</f>
-        <v>[Salon 01](https://meet.jit.si/ForumBranlyGR1)</v>
+        <v>[Salon 03](https://meet.jit.si/ForumBranlyGR3)</v>
       </c>
       <c r="G15" s="0" t="str">
         <f aca="false">VLOOKUP(E15,$A$66:$E$77,3)</f>
-        <v>B116</v>
+        <v>B106</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E16" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" s="0" t="str">
         <f aca="false">VLOOKUP(E16,$A$66:$E$77,5)</f>
-        <v>[Salon 02](https://meet.jit.si/ForumBranlyGR2)</v>
+        <v>[Salon 03](https://meet.jit.si/ForumBranlyGR3)</v>
       </c>
       <c r="G16" s="0" t="str">
         <f aca="false">VLOOKUP(E16,$A$66:$E$77,3)</f>
-        <v>B116</v>
+        <v>B106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>243</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="E17" s="13" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F17" s="0" t="str">
         <f aca="false">VLOOKUP(E17,$A$66:$E$77,5)</f>
-        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
+        <v>[Salon 03](https://meet.jit.si/ForumBranlyGR3)</v>
       </c>
       <c r="G17" s="0" t="str">
         <f aca="false">VLOOKUP(E17,$A$66:$E$77,3)</f>
@@ -7245,177 +7921,177 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F18" s="0" t="str">
         <f aca="false">VLOOKUP(E18,$A$66:$E$77,5)</f>
-        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G18" s="0" t="str">
         <f aca="false">VLOOKUP(E18,$A$66:$E$77,3)</f>
-        <v>B106</v>
+        <v>B108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F19" s="0" t="str">
         <f aca="false">VLOOKUP(E19,$A$66:$E$77,5)</f>
-        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G19" s="0" t="str">
         <f aca="false">VLOOKUP(E19,$A$66:$E$77,3)</f>
-        <v>B106</v>
+        <v>B108</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F20" s="0" t="str">
         <f aca="false">VLOOKUP(E20,$A$66:$E$77,5)</f>
-        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G20" s="0" t="str">
         <f aca="false">VLOOKUP(E20,$A$66:$E$77,3)</f>
-        <v>B106</v>
+        <v>B108</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F21" s="0" t="str">
         <f aca="false">VLOOKUP(E21,$A$66:$E$77,5)</f>
-        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G21" s="0" t="str">
         <f aca="false">VLOOKUP(E21,$A$66:$E$77,3)</f>
-        <v>B106</v>
+        <v>B108</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F22" s="0" t="str">
         <f aca="false">VLOOKUP(E22,$A$66:$E$77,5)</f>
-        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G22" s="0" t="str">
         <f aca="false">VLOOKUP(E22,$A$66:$E$77,3)</f>
-        <v>B106</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>B108</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F23" s="0" t="str">
         <f aca="false">VLOOKUP(E23,$A$66:$E$77,5)</f>
-        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G23" s="0" t="str">
         <f aca="false">VLOOKUP(E23,$A$66:$E$77,3)</f>
-        <v>B106</v>
+        <v>B108</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="A24" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="13" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F24" s="0" t="str">
         <f aca="false">VLOOKUP(E24,$A$66:$E$77,5)</f>
-        <v>[Salon 12](https://meet.jit.si/ForumBranlyGR12)</v>
+        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">VLOOKUP(E24,$A$66:$E$77,3)</f>
-        <v>B104</v>
+        <v>B108</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7440,268 +8116,268 @@
       </c>
       <c r="G25" s="0" t="str">
         <f aca="false">VLOOKUP(E25,$A$66:$E$77,3)</f>
-        <v>B118</v>
+        <v>B111</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="0" t="str">
         <f aca="false">VLOOKUP(E26,$A$66:$E$77,5)</f>
-        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G26" s="0" t="str">
         <f aca="false">VLOOKUP(E26,$A$66:$E$77,3)</f>
-        <v>B114</v>
+        <v>B111</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="0" t="str">
         <f aca="false">VLOOKUP(E27,$A$66:$E$77,5)</f>
-        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G27" s="0" t="str">
         <f aca="false">VLOOKUP(E27,$A$66:$E$77,3)</f>
-        <v>B114</v>
+        <v>B111</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="0" t="str">
         <f aca="false">VLOOKUP(E28,$A$66:$E$77,5)</f>
-        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G28" s="0" t="str">
         <f aca="false">VLOOKUP(E28,$A$66:$E$77,3)</f>
-        <v>B114</v>
+        <v>B111</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="0" t="str">
         <f aca="false">VLOOKUP(E29,$A$66:$E$77,5)</f>
-        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G29" s="0" t="str">
         <f aca="false">VLOOKUP(E29,$A$66:$E$77,3)</f>
-        <v>B114</v>
+        <v>B111</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="0" t="str">
         <f aca="false">VLOOKUP(E30,$A$66:$E$77,5)</f>
-        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">VLOOKUP(E30,$A$66:$E$77,3)</f>
-        <v>B114</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="3" t="s">
+        <v>B111</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="0" t="str">
         <f aca="false">VLOOKUP(E31,$A$66:$E$77,5)</f>
-        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
+        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">VLOOKUP(E31,$A$66:$E$77,3)</f>
-        <v>B114</v>
+        <v>B111</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F32" s="0" t="str">
         <f aca="false">VLOOKUP(E32,$A$66:$E$77,5)</f>
-        <v>[Salon 08](https://meet.jit.si/ForumBranlyGR8)</v>
+        <v>[Salon 06](https://meet.jit.si/ForumBranlyGR6)</v>
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">VLOOKUP(E32,$A$66:$E$77,3)</f>
-        <v>B103</v>
+        <v>B112</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F33" s="0" t="str">
         <f aca="false">VLOOKUP(E33,$A$66:$E$77,5)</f>
-        <v>[Salon 09](https://meet.jit.si/ForumBranlyGR9)</v>
+        <v>[Salon 06](https://meet.jit.si/ForumBranlyGR6)</v>
       </c>
       <c r="G33" s="0" t="str">
         <f aca="false">VLOOKUP(E33,$A$66:$E$77,3)</f>
-        <v>B111</v>
+        <v>B112</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F34" s="0" t="str">
         <f aca="false">VLOOKUP(E34,$A$66:$E$77,5)</f>
-        <v>[Salon 08](https://meet.jit.si/ForumBranlyGR8)</v>
+        <v>[Salon 06](https://meet.jit.si/ForumBranlyGR6)</v>
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">VLOOKUP(E34,$A$66:$E$77,3)</f>
-        <v>B103</v>
+        <v>B112</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" s="0" t="str">
         <f aca="false">VLOOKUP(E35,$A$66:$E$77,5)</f>
-        <v>[Salon 07](https://meet.jit.si/ForumBranlyGR7)</v>
+        <v>[Salon 06](https://meet.jit.si/ForumBranlyGR6)</v>
       </c>
       <c r="G35" s="0" t="str">
         <f aca="false">VLOOKUP(E35,$A$66:$E$77,3)</f>
-        <v>B113</v>
+        <v>B112</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>30</v>
@@ -7720,202 +8396,202 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F37" s="0" t="str">
         <f aca="false">VLOOKUP(E37,$A$66:$E$77,5)</f>
-        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
+        <v>[Salon 07](https://meet.jit.si/ForumBranlyGR7)</v>
       </c>
       <c r="G37" s="0" t="str">
         <f aca="false">VLOOKUP(E37,$A$66:$E$77,3)</f>
-        <v>B118</v>
+        <v>B113</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="A38" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38" s="0" t="str">
         <f aca="false">VLOOKUP(E38,$A$66:$E$77,5)</f>
-        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
+        <v>[Salon 07](https://meet.jit.si/ForumBranlyGR7)</v>
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">VLOOKUP(E38,$A$66:$E$77,3)</f>
-        <v>B118</v>
+        <v>B113</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="A39" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F39" s="0" t="str">
         <f aca="false">VLOOKUP(E39,$A$66:$E$77,5)</f>
-        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
+        <v>[Salon 07](https://meet.jit.si/ForumBranlyGR7)</v>
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">VLOOKUP(E39,$A$66:$E$77,3)</f>
-        <v>B118</v>
+        <v>B113</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F40" s="0" t="str">
         <f aca="false">VLOOKUP(E40,$A$66:$E$77,5)</f>
-        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
+        <v>[Salon 08](https://meet.jit.si/ForumBranlyGR8)</v>
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">VLOOKUP(E40,$A$66:$E$77,3)</f>
-        <v>B118</v>
+        <v>B114</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F41" s="0" t="str">
         <f aca="false">VLOOKUP(E41,$A$66:$E$77,5)</f>
-        <v>[Salon 06](https://meet.jit.si/ForumBranlyGR6)</v>
+        <v>[Salon 08](https://meet.jit.si/ForumBranlyGR8)</v>
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">VLOOKUP(E41,$A$66:$E$77,3)</f>
-        <v>B115</v>
+        <v>B114</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="3" t="s">
+      <c r="A42" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F42" s="0" t="str">
         <f aca="false">VLOOKUP(E42,$A$66:$E$77,5)</f>
-        <v>[Salon 06](https://meet.jit.si/ForumBranlyGR6)</v>
+        <v>[Salon 08](https://meet.jit.si/ForumBranlyGR8)</v>
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">VLOOKUP(E42,$A$66:$E$77,3)</f>
-        <v>B115</v>
+        <v>B114</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>18</v>
+      <c r="C43" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F43" s="0" t="str">
         <f aca="false">VLOOKUP(E43,$A$66:$E$77,5)</f>
-        <v>[Salon 06](https://meet.jit.si/ForumBranlyGR6)</v>
+        <v>[Salon 08](https://meet.jit.si/ForumBranlyGR8)</v>
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">VLOOKUP(E43,$A$66:$E$77,3)</f>
-        <v>B115</v>
+        <v>B114</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>270</v>
+        <v>152</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D44" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F44" s="0" t="str">
         <f aca="false">VLOOKUP(E44,$A$66:$E$77,5)</f>
-        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
+        <v>[Salon 09](https://meet.jit.si/ForumBranlyGR9)</v>
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">VLOOKUP(E44,$A$66:$E$77,3)</f>
-        <v>B118</v>
+        <v>B116</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7940,53 +8616,53 @@
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">VLOOKUP(E45,$A$66:$E$77,3)</f>
-        <v>B111</v>
+        <v>B116</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>269</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E46" s="13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F46" s="0" t="str">
         <f aca="false">VLOOKUP(E46,$A$66:$E$77,5)</f>
-        <v>[Salon 11](https://meet.jit.si/ForumBranlyGR11)</v>
+        <v>[Salon 09](https://meet.jit.si/ForumBranlyGR9)</v>
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">VLOOKUP(E46,$A$66:$E$77,3)</f>
-        <v>B113</v>
+        <v>B116</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>243</v>
+      <c r="C47" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E47" s="13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F47" s="0" t="str">
         <f aca="false">VLOOKUP(E47,$A$66:$E$77,5)</f>
-        <v>[Salon 03](https://meet.jit.si/ForumBranlyGR3)</v>
+        <v>[Salon 09](https://meet.jit.si/ForumBranlyGR9)</v>
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">VLOOKUP(E47,$A$66:$E$77,3)</f>
@@ -7995,263 +8671,263 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>274</v>
+        <v>107</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F48" s="0" t="str">
         <f aca="false">VLOOKUP(E48,$A$66:$E$77,5)</f>
-        <v>[Salon 06](https://meet.jit.si/ForumBranlyGR6)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">VLOOKUP(E48,$A$66:$E$77,3)</f>
-        <v>B115</v>
+        <v>B116</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E49" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F49" s="0" t="str">
         <f aca="false">VLOOKUP(E49,$A$66:$E$77,5)</f>
-        <v>[Salon 09](https://meet.jit.si/ForumBranlyGR9)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">VLOOKUP(E49,$A$66:$E$77,3)</f>
-        <v>B111</v>
+        <v>B116</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>276</v>
+        <v>113</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D50" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E50" s="13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F50" s="0" t="str">
         <f aca="false">VLOOKUP(E50,$A$66:$E$77,5)</f>
-        <v>[Salon 12](https://meet.jit.si/ForumBranlyGR12)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">VLOOKUP(E50,$A$66:$E$77,3)</f>
-        <v>B104</v>
+        <v>B116</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D51" s="0" t="s">
+      <c r="A51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F51" s="0" t="str">
         <f aca="false">VLOOKUP(E51,$A$66:$E$77,5)</f>
-        <v>[Salon 12](https://meet.jit.si/ForumBranlyGR12)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">VLOOKUP(E51,$A$66:$E$77,3)</f>
-        <v>B104</v>
+        <v>B116</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="0" t="s">
+      <c r="A52" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E52" s="13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F52" s="0" t="str">
         <f aca="false">VLOOKUP(E52,$A$66:$E$77,5)</f>
-        <v>[Salon 09](https://meet.jit.si/ForumBranlyGR9)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">VLOOKUP(E52,$A$66:$E$77,3)</f>
-        <v>B111</v>
+        <v>B116</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="0" t="s">
+      <c r="A53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E53" s="13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F53" s="0" t="str">
         <f aca="false">VLOOKUP(E53,$A$66:$E$77,5)</f>
-        <v>[Salon 07](https://meet.jit.si/ForumBranlyGR7)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">VLOOKUP(E53,$A$66:$E$77,3)</f>
-        <v>B113</v>
+        <v>B116</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="0" t="s">
+      <c r="A54" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F54" s="0" t="str">
         <f aca="false">VLOOKUP(E54,$A$66:$E$77,5)</f>
-        <v>[Salon 08](https://meet.jit.si/ForumBranlyGR8)</v>
+        <v>[Salon 10](https://meet.jit.si/ForumBranlyGR10)</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">VLOOKUP(E54,$A$66:$E$77,3)</f>
-        <v>B103</v>
+        <v>B116</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>282</v>
+      <c r="C55" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E55" s="13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F55" s="0" t="str">
         <f aca="false">VLOOKUP(E55,$A$66:$E$77,5)</f>
-        <v>[Salon 08](https://meet.jit.si/ForumBranlyGR8)</v>
+        <v>[Salon 11](https://meet.jit.si/ForumBranlyGR11)</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">VLOOKUP(E55,$A$66:$E$77,3)</f>
-        <v>B103</v>
+        <v>B115</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>269</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E56" s="13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F56" s="0" t="str">
         <f aca="false">VLOOKUP(E56,$A$66:$E$77,5)</f>
-        <v>[Salon 07](https://meet.jit.si/ForumBranlyGR7)</v>
+        <v>[Salon 11](https://meet.jit.si/ForumBranlyGR11)</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">VLOOKUP(E56,$A$66:$E$77,3)</f>
-        <v>B113</v>
+        <v>B115</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D57" s="0" t="s">
+      <c r="A57" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E57" s="13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" s="0" t="str">
         <f aca="false">VLOOKUP(E57,$A$66:$E$77,5)</f>
-        <v>[Salon 11](https://meet.jit.si/ForumBranlyGR11)</v>
+        <v>[Salon 12](https://meet.jit.si/ForumBranlyGR12)</v>
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">VLOOKUP(E57,$A$66:$E$77,3)</f>
-        <v>B113</v>
+        <v>B118</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>287</v>
+      <c r="C58" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>30</v>
@@ -8265,53 +8941,53 @@
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">VLOOKUP(E58,$A$66:$E$77,3)</f>
-        <v>B104</v>
+        <v>B118</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>269</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E59" s="13" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F59" s="0" t="str">
         <f aca="false">VLOOKUP(E59,$A$66:$E$77,5)</f>
-        <v>[Salon 04](https://meet.jit.si/ForumBranlyGR4)</v>
+        <v>[Salon 12](https://meet.jit.si/ForumBranlyGR12)</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">VLOOKUP(E59,$A$66:$E$77,3)</f>
-        <v>B114</v>
+        <v>B118</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>269</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>30</v>
       </c>
       <c r="E60" s="13" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F60" s="0" t="str">
         <f aca="false">VLOOKUP(E60,$A$66:$E$77,5)</f>
-        <v>[Salon 05](https://meet.jit.si/ForumBranlyGR5)</v>
+        <v>[Salon 12](https://meet.jit.si/ForumBranlyGR12)</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">VLOOKUP(E60,$A$66:$E$77,3)</f>
@@ -8340,10 +9016,13 @@
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">VLOOKUP(E61,$A$66:$E$77,3)</f>
-        <v>B104</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>B118</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>292</v>
       </c>
@@ -8363,7 +9042,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>297</v>
@@ -8372,7 +9051,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>2</v>
       </c>
@@ -8381,7 +9060,7 @@
         <v>8</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>299</v>
@@ -8399,7 +9078,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>301</v>
@@ -8417,13 +9096,13 @@
         <v>7</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>304</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8435,13 +9114,13 @@
         <v>7</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>307</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8453,13 +9132,13 @@
         <v>4</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>310</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8477,7 +9156,7 @@
         <v>313</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8489,13 +9168,13 @@
         <v>4</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>316</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8507,16 +9186,16 @@
         <v>4</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>319</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
         <v>10</v>
       </c>
@@ -8525,13 +9204,13 @@
         <v>7</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>322</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8543,13 +9222,13 @@
         <v>2</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>324</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8561,13 +9240,13 @@
         <v>5</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>327</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -8588,11 +9267,11 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D44" activeCellId="1" sqref="C51 D44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D44" activeCellId="1" sqref="G:M D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="21.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="28.32"/>
@@ -8607,13 +9286,13 @@
         <v>44</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>328</v>
@@ -8636,7 +9315,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>296</v>
@@ -8656,7 +9335,7 @@
         <v>55</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>296</v>
@@ -8676,7 +9355,7 @@
         <v>55</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>296</v>
@@ -8696,7 +9375,7 @@
         <v>55</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>296</v>
@@ -8716,7 +9395,7 @@
         <v>55</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>296</v>
@@ -8736,7 +9415,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>296</v>
@@ -8756,7 +9435,7 @@
         <v>55</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>296</v>
@@ -8776,7 +9455,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>296</v>
@@ -8796,7 +9475,7 @@
         <v>55</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>296</v>
@@ -8816,7 +9495,7 @@
         <v>55</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>296</v>
@@ -8836,7 +9515,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>296</v>
@@ -8856,7 +9535,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>296</v>
@@ -8876,7 +9555,7 @@
         <v>55</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>296</v>
@@ -8896,7 +9575,7 @@
         <v>55</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>296</v>
@@ -8916,7 +9595,7 @@
         <v>55</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>296</v>
@@ -8936,7 +9615,7 @@
         <v>30</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>321</v>
@@ -8956,7 +9635,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>321</v>
@@ -8976,7 +9655,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>321</v>
@@ -8996,7 +9675,7 @@
         <v>30</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>321</v>
@@ -9016,7 +9695,7 @@
         <v>30</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>321</v>
@@ -9036,7 +9715,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>321</v>
@@ -9056,7 +9735,7 @@
         <v>30</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>321</v>
@@ -9076,7 +9755,7 @@
         <v>30</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>326</v>
@@ -9096,7 +9775,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>306</v>
@@ -9116,7 +9795,7 @@
         <v>30</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>303</v>
@@ -9136,7 +9815,7 @@
         <v>30</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>303</v>
@@ -9156,7 +9835,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>303</v>
@@ -9176,7 +9855,7 @@
         <v>30</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>303</v>
@@ -9196,7 +9875,7 @@
         <v>30</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>303</v>
@@ -9216,7 +9895,7 @@
         <v>30</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>303</v>
@@ -9236,7 +9915,7 @@
         <v>30</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>315</v>
@@ -9256,7 +9935,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>318</v>
@@ -9276,7 +9955,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>315</v>
@@ -9296,7 +9975,7 @@
         <v>30</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>312</v>
@@ -9316,7 +9995,7 @@
         <v>30</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>312</v>
@@ -9336,7 +10015,7 @@
         <v>30</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>306</v>
@@ -9356,7 +10035,7 @@
         <v>30</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>306</v>
@@ -9376,7 +10055,7 @@
         <v>30</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>306</v>
@@ -9396,7 +10075,7 @@
         <v>30</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>306</v>
@@ -9416,7 +10095,7 @@
         <v>30</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>309</v>
@@ -9436,7 +10115,7 @@
         <v>30</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>309</v>
@@ -9456,7 +10135,7 @@
         <v>30</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>309</v>
@@ -9476,7 +10155,7 @@
         <v>30</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>306</v>
@@ -9496,7 +10175,7 @@
         <v>30</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>318</v>
@@ -9516,7 +10195,7 @@
         <v>30</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>312</v>
@@ -9536,7 +10215,7 @@
         <v>55</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>296</v>
@@ -9556,7 +10235,7 @@
         <v>30</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>309</v>
@@ -9576,7 +10255,7 @@
         <v>30</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>318</v>
@@ -9596,7 +10275,7 @@
         <v>30</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>326</v>
@@ -9616,7 +10295,7 @@
         <v>30</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>326</v>
@@ -9636,7 +10315,7 @@
         <v>30</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>318</v>
@@ -9656,7 +10335,7 @@
         <v>30</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>312</v>
@@ -9676,7 +10355,7 @@
         <v>30</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>315</v>
@@ -9696,7 +10375,7 @@
         <v>30</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>315</v>
@@ -9716,7 +10395,7 @@
         <v>30</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>312</v>
@@ -9736,7 +10415,7 @@
         <v>30</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>312</v>
@@ -9756,7 +10435,7 @@
         <v>30</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>326</v>
@@ -9776,7 +10455,7 @@
         <v>30</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>303</v>
@@ -9796,7 +10475,7 @@
         <v>30</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>306</v>
@@ -9816,7 +10495,7 @@
         <v>30</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>326</v>
